--- a/world_info/scraper/worlds.xlsx
+++ b/world_info/scraper/worlds.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O818"/>
+  <dimension ref="A1:O836"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47326,8 +47326,6 @@
       <c r="J818" t="n">
         <v>0</v>
       </c>
-      <c r="K818" t="inlineStr"/>
-      <c r="L818" t="inlineStr"/>
       <c r="M818" t="n">
         <v>605</v>
       </c>
@@ -47336,7 +47334,978 @@
           <t>private</t>
         </is>
       </c>
-      <c r="O818" t="inlineStr"/>
+    </row>
+    <row r="819">
+      <c r="A819" t="inlineStr">
+        <is>
+          <t>2025/08/05</t>
+        </is>
+      </c>
+      <c r="B819" t="inlineStr">
+        <is>
+          <t>Project T 9 Turns Taiwan Touge CVS2 九彎十八拐</t>
+        </is>
+      </c>
+      <c r="C819" t="inlineStr">
+        <is>
+          <t>wrld_c4d985d3-11de-4a89-9e8b-60b0342a1676</t>
+        </is>
+      </c>
+      <c r="D819" t="inlineStr">
+        <is>
+          <t>2025-05-03T22:35:59.524Z</t>
+        </is>
+      </c>
+      <c r="E819" t="inlineStr">
+        <is>
+          <t>2025-08-02T09:39:48.354Z</t>
+        </is>
+      </c>
+      <c r="F819" t="n">
+        <v>2096</v>
+      </c>
+      <c r="G819" t="n">
+        <v>32</v>
+      </c>
+      <c r="H819" t="n">
+        <v>108</v>
+      </c>
+      <c r="I819" t="n">
+        <v>3</v>
+      </c>
+      <c r="J819" t="n">
+        <v>5</v>
+      </c>
+      <c r="K819" t="n">
+        <v>12</v>
+      </c>
+      <c r="L819" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="M819" t="n">
+        <v>2</v>
+      </c>
+      <c r="N819" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O819" t="n">
+        <v>22.54</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="inlineStr">
+        <is>
+          <t>2025/08/05</t>
+        </is>
+      </c>
+      <c r="B820" t="inlineStr">
+        <is>
+          <t>StarRiver Space Program v0․1․1 LiftOff</t>
+        </is>
+      </c>
+      <c r="C820" t="inlineStr">
+        <is>
+          <t>wrld_f3acb654-f2ab-49aa-9108-d261c53c5d64</t>
+        </is>
+      </c>
+      <c r="D820" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E820" t="inlineStr">
+        <is>
+          <t>2025-07-13T11:38:02.242Z</t>
+        </is>
+      </c>
+      <c r="F820" t="n">
+        <v>49</v>
+      </c>
+      <c r="G820" t="n">
+        <v>32</v>
+      </c>
+      <c r="H820" t="n">
+        <v>1</v>
+      </c>
+      <c r="I820" t="n">
+        <v>0</v>
+      </c>
+      <c r="J820" t="n">
+        <v>3</v>
+      </c>
+      <c r="L820" t="n">
+        <v>49</v>
+      </c>
+      <c r="M820" t="n">
+        <v>22</v>
+      </c>
+      <c r="N820" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="inlineStr">
+        <is>
+          <t>2025/08/05</t>
+        </is>
+      </c>
+      <c r="B821" t="inlineStr">
+        <is>
+          <t>UNFINISHED Project T SunMoonLake 日月潭 南投山道</t>
+        </is>
+      </c>
+      <c r="C821" t="inlineStr">
+        <is>
+          <t>wrld_1b189721-fa5d-4c64-a24b-9a2c5b89b3b5</t>
+        </is>
+      </c>
+      <c r="D821" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E821" t="inlineStr">
+        <is>
+          <t>2025-07-06T07:24:59.566Z</t>
+        </is>
+      </c>
+      <c r="F821" t="n">
+        <v>3</v>
+      </c>
+      <c r="G821" t="n">
+        <v>32</v>
+      </c>
+      <c r="H821" t="n">
+        <v>0</v>
+      </c>
+      <c r="I821" t="n">
+        <v>0</v>
+      </c>
+      <c r="J821" t="n">
+        <v>0</v>
+      </c>
+      <c r="M821" t="n">
+        <v>30</v>
+      </c>
+      <c r="N821" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="inlineStr">
+        <is>
+          <t>2025/08/05</t>
+        </is>
+      </c>
+      <c r="B822" t="inlineStr">
+        <is>
+          <t>UNFINISHED Project T WuLing 武嶺（佐久間峠） 合歡山山道</t>
+        </is>
+      </c>
+      <c r="C822" t="inlineStr">
+        <is>
+          <t>wrld_5fb84156-598a-43c8-8a2b-2c9aa7c95b40</t>
+        </is>
+      </c>
+      <c r="D822" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E822" t="inlineStr">
+        <is>
+          <t>2025-07-03T13:07:32.404Z</t>
+        </is>
+      </c>
+      <c r="F822" t="n">
+        <v>49</v>
+      </c>
+      <c r="G822" t="n">
+        <v>32</v>
+      </c>
+      <c r="H822" t="n">
+        <v>2</v>
+      </c>
+      <c r="I822" t="n">
+        <v>2</v>
+      </c>
+      <c r="J822" t="n">
+        <v>3</v>
+      </c>
+      <c r="L822" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="M822" t="n">
+        <v>32</v>
+      </c>
+      <c r="N822" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="inlineStr">
+        <is>
+          <t>2025/08/05</t>
+        </is>
+      </c>
+      <c r="B823" t="inlineStr">
+        <is>
+          <t>Project T 9 Turns Taiwan Touge Sacc 九彎十八拐</t>
+        </is>
+      </c>
+      <c r="C823" t="inlineStr">
+        <is>
+          <t>wrld_a6f9cdae-d393-4572-b019-015e4ec6eb35</t>
+        </is>
+      </c>
+      <c r="D823" t="inlineStr">
+        <is>
+          <t>2025-04-09T11:56:42.006Z</t>
+        </is>
+      </c>
+      <c r="E823" t="inlineStr">
+        <is>
+          <t>2025-05-27T15:40:33.056Z</t>
+        </is>
+      </c>
+      <c r="F823" t="n">
+        <v>731</v>
+      </c>
+      <c r="G823" t="n">
+        <v>32</v>
+      </c>
+      <c r="H823" t="n">
+        <v>66</v>
+      </c>
+      <c r="I823" t="n">
+        <v>0</v>
+      </c>
+      <c r="J823" t="n">
+        <v>4</v>
+      </c>
+      <c r="K823" t="n">
+        <v>15</v>
+      </c>
+      <c r="L823" t="n">
+        <v>11.08</v>
+      </c>
+      <c r="M823" t="n">
+        <v>69</v>
+      </c>
+      <c r="N823" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O823" t="n">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="inlineStr">
+        <is>
+          <t>2025/08/05</t>
+        </is>
+      </c>
+      <c r="B824" t="inlineStr">
+        <is>
+          <t>日月潭外周道 Sun Moon Lake</t>
+        </is>
+      </c>
+      <c r="C824" t="inlineStr">
+        <is>
+          <t>wrld_6e465490-9b15-4d2b-b4fe-1ea06e09e55a</t>
+        </is>
+      </c>
+      <c r="D824" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E824" t="inlineStr">
+        <is>
+          <t>2025-05-17T13:55:05.489Z</t>
+        </is>
+      </c>
+      <c r="F824" t="n">
+        <v>79</v>
+      </c>
+      <c r="G824" t="n">
+        <v>32</v>
+      </c>
+      <c r="H824" t="n">
+        <v>2</v>
+      </c>
+      <c r="I824" t="n">
+        <v>0</v>
+      </c>
+      <c r="J824" t="n">
+        <v>3</v>
+      </c>
+      <c r="L824" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="M824" t="n">
+        <v>79</v>
+      </c>
+      <c r="N824" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="inlineStr">
+        <is>
+          <t>2025/08/05</t>
+        </is>
+      </c>
+      <c r="B825" t="inlineStr">
+        <is>
+          <t>Formosa Test</t>
+        </is>
+      </c>
+      <c r="C825" t="inlineStr">
+        <is>
+          <t>wrld_44e2cf46-b090-4c70-b5ba-9f7e7ec89d4f</t>
+        </is>
+      </c>
+      <c r="D825" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E825" t="inlineStr">
+        <is>
+          <t>2025-05-14T15:58:52.154Z</t>
+        </is>
+      </c>
+      <c r="F825" t="n">
+        <v>67</v>
+      </c>
+      <c r="G825" t="n">
+        <v>32</v>
+      </c>
+      <c r="H825" t="n">
+        <v>0</v>
+      </c>
+      <c r="I825" t="n">
+        <v>0</v>
+      </c>
+      <c r="J825" t="n">
+        <v>0</v>
+      </c>
+      <c r="M825" t="n">
+        <v>82</v>
+      </c>
+      <c r="N825" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="inlineStr">
+        <is>
+          <t>2025/08/05</t>
+        </is>
+      </c>
+      <c r="B826" t="inlineStr">
+        <is>
+          <t>星門廣場StarGATE Exhibition</t>
+        </is>
+      </c>
+      <c r="C826" t="inlineStr">
+        <is>
+          <t>wrld_16498412-b9e0-404c-9da7-114484c89ecd</t>
+        </is>
+      </c>
+      <c r="D826" t="inlineStr">
+        <is>
+          <t>2024-07-22T05:06:07.749Z</t>
+        </is>
+      </c>
+      <c r="E826" t="inlineStr">
+        <is>
+          <t>2025-05-08T16:46:38.069Z</t>
+        </is>
+      </c>
+      <c r="F826" t="n">
+        <v>788</v>
+      </c>
+      <c r="G826" t="n">
+        <v>32</v>
+      </c>
+      <c r="H826" t="n">
+        <v>13</v>
+      </c>
+      <c r="I826" t="n">
+        <v>0</v>
+      </c>
+      <c r="J826" t="n">
+        <v>4</v>
+      </c>
+      <c r="K826" t="n">
+        <v>24</v>
+      </c>
+      <c r="L826" t="n">
+        <v>60.62</v>
+      </c>
+      <c r="M826" t="n">
+        <v>88</v>
+      </c>
+      <c r="N826" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O826" t="n">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="inlineStr">
+        <is>
+          <t>2025/08/05</t>
+        </is>
+      </c>
+      <c r="B827" t="inlineStr">
+        <is>
+          <t>Iseri Nina's Room （Girls Band Cry）</t>
+        </is>
+      </c>
+      <c r="C827" t="inlineStr">
+        <is>
+          <t>wrld_014b19d4-10fc-448d-aaf4-100067cc8eb2</t>
+        </is>
+      </c>
+      <c r="D827" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E827" t="inlineStr">
+        <is>
+          <t>2025-04-10T13:03:37.715Z</t>
+        </is>
+      </c>
+      <c r="F827" t="n">
+        <v>114</v>
+      </c>
+      <c r="G827" t="n">
+        <v>16</v>
+      </c>
+      <c r="H827" t="n">
+        <v>16</v>
+      </c>
+      <c r="I827" t="n">
+        <v>0</v>
+      </c>
+      <c r="J827" t="n">
+        <v>3</v>
+      </c>
+      <c r="L827" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="M827" t="n">
+        <v>116</v>
+      </c>
+      <c r="N827" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="inlineStr">
+        <is>
+          <t>2025/08/05</t>
+        </is>
+      </c>
+      <c r="B828" t="inlineStr">
+        <is>
+          <t>Starriver's Room</t>
+        </is>
+      </c>
+      <c r="C828" t="inlineStr">
+        <is>
+          <t>wrld_c0f03f3e-ca4c-48cb-8aea-14ed13c1ee03</t>
+        </is>
+      </c>
+      <c r="D828" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E828" t="inlineStr">
+        <is>
+          <t>2025-04-08T12:56:39.508Z</t>
+        </is>
+      </c>
+      <c r="F828" t="n">
+        <v>218</v>
+      </c>
+      <c r="G828" t="n">
+        <v>32</v>
+      </c>
+      <c r="H828" t="n">
+        <v>0</v>
+      </c>
+      <c r="I828" t="n">
+        <v>0</v>
+      </c>
+      <c r="J828" t="n">
+        <v>0</v>
+      </c>
+      <c r="M828" t="n">
+        <v>118</v>
+      </c>
+      <c r="N828" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="inlineStr">
+        <is>
+          <t>2025/08/05</t>
+        </is>
+      </c>
+      <c r="B829" t="inlineStr">
+        <is>
+          <t>Metro Formosa Test</t>
+        </is>
+      </c>
+      <c r="C829" t="inlineStr">
+        <is>
+          <t>wrld_39eab7ef-be49-4bb2-bb63-56bc30200b82</t>
+        </is>
+      </c>
+      <c r="D829" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E829" t="inlineStr">
+        <is>
+          <t>2024-11-24T13:59:30.261Z</t>
+        </is>
+      </c>
+      <c r="F829" t="n">
+        <v>20</v>
+      </c>
+      <c r="G829" t="n">
+        <v>32</v>
+      </c>
+      <c r="H829" t="n">
+        <v>0</v>
+      </c>
+      <c r="I829" t="n">
+        <v>0</v>
+      </c>
+      <c r="J829" t="n">
+        <v>0</v>
+      </c>
+      <c r="M829" t="n">
+        <v>253</v>
+      </c>
+      <c r="N829" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="inlineStr">
+        <is>
+          <t>2025/08/05</t>
+        </is>
+      </c>
+      <c r="B830" t="inlineStr">
+        <is>
+          <t>Project ˸ Prototype v0․1․0․ Hangout and chill ǃ （Minecraft Build Project）</t>
+        </is>
+      </c>
+      <c r="C830" t="inlineStr">
+        <is>
+          <t>wrld_fb9540f8-68f1-42e8-9430-558fc2d568c4</t>
+        </is>
+      </c>
+      <c r="D830" t="inlineStr">
+        <is>
+          <t>2023-10-15T12:21:09.717Z</t>
+        </is>
+      </c>
+      <c r="E830" t="inlineStr">
+        <is>
+          <t>2024-09-21T10:55:45.843Z</t>
+        </is>
+      </c>
+      <c r="F830" t="n">
+        <v>4231</v>
+      </c>
+      <c r="G830" t="n">
+        <v>32</v>
+      </c>
+      <c r="H830" t="n">
+        <v>180</v>
+      </c>
+      <c r="I830" t="n">
+        <v>1</v>
+      </c>
+      <c r="J830" t="n">
+        <v>5</v>
+      </c>
+      <c r="K830" t="n">
+        <v>5</v>
+      </c>
+      <c r="L830" t="n">
+        <v>23.51</v>
+      </c>
+      <c r="M830" t="n">
+        <v>317</v>
+      </c>
+      <c r="N830" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O830" t="n">
+        <v>6.42</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="inlineStr">
+        <is>
+          <t>2025/08/05</t>
+        </is>
+      </c>
+      <c r="B831" t="inlineStr">
+        <is>
+          <t>Taipei MRT 大坪林站 by StarRiver（未完成）</t>
+        </is>
+      </c>
+      <c r="C831" t="inlineStr">
+        <is>
+          <t>wrld_b7193f7d-4616-4b3e-8236-e2f4c7da2d8d</t>
+        </is>
+      </c>
+      <c r="D831" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E831" t="inlineStr">
+        <is>
+          <t>2024-09-15T05:18:23.226Z</t>
+        </is>
+      </c>
+      <c r="F831" t="n">
+        <v>116</v>
+      </c>
+      <c r="G831" t="n">
+        <v>32</v>
+      </c>
+      <c r="H831" t="n">
+        <v>2</v>
+      </c>
+      <c r="I831" t="n">
+        <v>0</v>
+      </c>
+      <c r="J831" t="n">
+        <v>4</v>
+      </c>
+      <c r="L831" t="n">
+        <v>58</v>
+      </c>
+      <c r="M831" t="n">
+        <v>324</v>
+      </c>
+      <c r="N831" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="inlineStr">
+        <is>
+          <t>2025/08/05</t>
+        </is>
+      </c>
+      <c r="B832" t="inlineStr">
+        <is>
+          <t>Free Trajectory -A Landscape Recreation Experience</t>
+        </is>
+      </c>
+      <c r="C832" t="inlineStr">
+        <is>
+          <t>wrld_81e98a0f-b8eb-4a9b-b01b-35d26758c41c</t>
+        </is>
+      </c>
+      <c r="D832" t="inlineStr">
+        <is>
+          <t>2024-07-23T14:43:36.014Z</t>
+        </is>
+      </c>
+      <c r="E832" t="inlineStr">
+        <is>
+          <t>2024-07-22T19:52:03.599Z</t>
+        </is>
+      </c>
+      <c r="F832" t="n">
+        <v>362</v>
+      </c>
+      <c r="G832" t="n">
+        <v>32</v>
+      </c>
+      <c r="H832" t="n">
+        <v>3</v>
+      </c>
+      <c r="I832" t="n">
+        <v>0</v>
+      </c>
+      <c r="J832" t="n">
+        <v>4</v>
+      </c>
+      <c r="K832" t="n">
+        <v>0</v>
+      </c>
+      <c r="L832" t="n">
+        <v>120.67</v>
+      </c>
+      <c r="M832" t="n">
+        <v>378</v>
+      </c>
+      <c r="N832" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O832" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="inlineStr">
+        <is>
+          <t>2025/08/05</t>
+        </is>
+      </c>
+      <c r="B833" t="inlineStr">
+        <is>
+          <t>Project：Hide＆Seek LAB（UNFINISHED ）</t>
+        </is>
+      </c>
+      <c r="C833" t="inlineStr">
+        <is>
+          <t>wrld_bac386e9-a543-48e7-a12d-fe9bd3521493</t>
+        </is>
+      </c>
+      <c r="D833" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E833" t="inlineStr">
+        <is>
+          <t>2024-07-11T09:44:06.067Z</t>
+        </is>
+      </c>
+      <c r="F833" t="n">
+        <v>49</v>
+      </c>
+      <c r="G833" t="n">
+        <v>16</v>
+      </c>
+      <c r="H833" t="n">
+        <v>0</v>
+      </c>
+      <c r="I833" t="n">
+        <v>0</v>
+      </c>
+      <c r="J833" t="n">
+        <v>0</v>
+      </c>
+      <c r="M833" t="n">
+        <v>389</v>
+      </c>
+      <c r="N833" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="inlineStr">
+        <is>
+          <t>2025/08/05</t>
+        </is>
+      </c>
+      <c r="B834" t="inlineStr">
+        <is>
+          <t>Simple Green Room（Quest 3 MR）</t>
+        </is>
+      </c>
+      <c r="C834" t="inlineStr">
+        <is>
+          <t>wrld_14e668e2-f41b-4655-9440-51be3be0ae81</t>
+        </is>
+      </c>
+      <c r="D834" t="inlineStr">
+        <is>
+          <t>2024-07-08T21:05:28.545Z</t>
+        </is>
+      </c>
+      <c r="E834" t="inlineStr">
+        <is>
+          <t>2024-07-11T08:38:23.384Z</t>
+        </is>
+      </c>
+      <c r="F834" t="n">
+        <v>587</v>
+      </c>
+      <c r="G834" t="n">
+        <v>8</v>
+      </c>
+      <c r="H834" t="n">
+        <v>34</v>
+      </c>
+      <c r="I834" t="n">
+        <v>3</v>
+      </c>
+      <c r="J834" t="n">
+        <v>4</v>
+      </c>
+      <c r="K834" t="n">
+        <v>263</v>
+      </c>
+      <c r="L834" t="n">
+        <v>17.26</v>
+      </c>
+      <c r="M834" t="n">
+        <v>389</v>
+      </c>
+      <c r="N834" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O834" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="inlineStr">
+        <is>
+          <t>2025/08/05</t>
+        </is>
+      </c>
+      <c r="B835" t="inlineStr">
+        <is>
+          <t>Ruined斷垣殘壁 （測試）</t>
+        </is>
+      </c>
+      <c r="C835" t="inlineStr">
+        <is>
+          <t>wrld_7d7a9a66-df6a-4e2c-96fb-19b4dc53c430</t>
+        </is>
+      </c>
+      <c r="D835" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E835" t="inlineStr">
+        <is>
+          <t>2024-06-04T16:33:51.575Z</t>
+        </is>
+      </c>
+      <c r="F835" t="n">
+        <v>2</v>
+      </c>
+      <c r="G835" t="n">
+        <v>32</v>
+      </c>
+      <c r="H835" t="n">
+        <v>0</v>
+      </c>
+      <c r="I835" t="n">
+        <v>0</v>
+      </c>
+      <c r="J835" t="n">
+        <v>0</v>
+      </c>
+      <c r="M835" t="n">
+        <v>426</v>
+      </c>
+      <c r="N835" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="inlineStr">
+        <is>
+          <t>2025/08/05</t>
+        </is>
+      </c>
+      <c r="B836" t="inlineStr">
+        <is>
+          <t>Project˸ Taiwan</t>
+        </is>
+      </c>
+      <c r="C836" t="inlineStr">
+        <is>
+          <t>wrld_2e5e73d8-758f-4e2d-87db-7770762d52f0</t>
+        </is>
+      </c>
+      <c r="D836" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E836" t="inlineStr">
+        <is>
+          <t>2023-12-08T22:31:41.588Z</t>
+        </is>
+      </c>
+      <c r="F836" t="n">
+        <v>11</v>
+      </c>
+      <c r="G836" t="n">
+        <v>32</v>
+      </c>
+      <c r="H836" t="n">
+        <v>0</v>
+      </c>
+      <c r="I836" t="n">
+        <v>0</v>
+      </c>
+      <c r="J836" t="n">
+        <v>0</v>
+      </c>
+      <c r="K836" t="inlineStr"/>
+      <c r="L836" t="inlineStr"/>
+      <c r="M836" t="n">
+        <v>605</v>
+      </c>
+      <c r="N836" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+      <c r="O836" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/world_info/scraper/worlds.xlsx
+++ b/world_info/scraper/worlds.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O836"/>
+  <dimension ref="A1:O854"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48295,8 +48295,6 @@
       <c r="J836" t="n">
         <v>0</v>
       </c>
-      <c r="K836" t="inlineStr"/>
-      <c r="L836" t="inlineStr"/>
       <c r="M836" t="n">
         <v>605</v>
       </c>
@@ -48305,7 +48303,978 @@
           <t>private</t>
         </is>
       </c>
-      <c r="O836" t="inlineStr"/>
+    </row>
+    <row r="837">
+      <c r="A837" t="inlineStr">
+        <is>
+          <t>2025/08/06</t>
+        </is>
+      </c>
+      <c r="B837" t="inlineStr">
+        <is>
+          <t>Project T 9 Turns Taiwan Touge CVS2 九彎十八拐</t>
+        </is>
+      </c>
+      <c r="C837" t="inlineStr">
+        <is>
+          <t>wrld_c4d985d3-11de-4a89-9e8b-60b0342a1676</t>
+        </is>
+      </c>
+      <c r="D837" t="inlineStr">
+        <is>
+          <t>2025-05-03T22:35:59.524Z</t>
+        </is>
+      </c>
+      <c r="E837" t="inlineStr">
+        <is>
+          <t>2025-08-02T09:39:48.354Z</t>
+        </is>
+      </c>
+      <c r="F837" t="n">
+        <v>2103</v>
+      </c>
+      <c r="G837" t="n">
+        <v>32</v>
+      </c>
+      <c r="H837" t="n">
+        <v>108</v>
+      </c>
+      <c r="I837" t="n">
+        <v>3</v>
+      </c>
+      <c r="J837" t="n">
+        <v>5</v>
+      </c>
+      <c r="K837" t="n">
+        <v>12</v>
+      </c>
+      <c r="L837" t="n">
+        <v>19.47</v>
+      </c>
+      <c r="M837" t="n">
+        <v>3</v>
+      </c>
+      <c r="N837" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O837" t="n">
+        <v>22.37</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="inlineStr">
+        <is>
+          <t>2025/08/06</t>
+        </is>
+      </c>
+      <c r="B838" t="inlineStr">
+        <is>
+          <t>StarRiver Space Program v0․1․1 LiftOff</t>
+        </is>
+      </c>
+      <c r="C838" t="inlineStr">
+        <is>
+          <t>wrld_f3acb654-f2ab-49aa-9108-d261c53c5d64</t>
+        </is>
+      </c>
+      <c r="D838" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E838" t="inlineStr">
+        <is>
+          <t>2025-07-13T11:38:02.242Z</t>
+        </is>
+      </c>
+      <c r="F838" t="n">
+        <v>49</v>
+      </c>
+      <c r="G838" t="n">
+        <v>32</v>
+      </c>
+      <c r="H838" t="n">
+        <v>1</v>
+      </c>
+      <c r="I838" t="n">
+        <v>0</v>
+      </c>
+      <c r="J838" t="n">
+        <v>3</v>
+      </c>
+      <c r="L838" t="n">
+        <v>49</v>
+      </c>
+      <c r="M838" t="n">
+        <v>23</v>
+      </c>
+      <c r="N838" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="inlineStr">
+        <is>
+          <t>2025/08/06</t>
+        </is>
+      </c>
+      <c r="B839" t="inlineStr">
+        <is>
+          <t>UNFINISHED Project T SunMoonLake 日月潭 南投山道</t>
+        </is>
+      </c>
+      <c r="C839" t="inlineStr">
+        <is>
+          <t>wrld_1b189721-fa5d-4c64-a24b-9a2c5b89b3b5</t>
+        </is>
+      </c>
+      <c r="D839" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E839" t="inlineStr">
+        <is>
+          <t>2025-07-06T07:24:59.566Z</t>
+        </is>
+      </c>
+      <c r="F839" t="n">
+        <v>3</v>
+      </c>
+      <c r="G839" t="n">
+        <v>32</v>
+      </c>
+      <c r="H839" t="n">
+        <v>0</v>
+      </c>
+      <c r="I839" t="n">
+        <v>0</v>
+      </c>
+      <c r="J839" t="n">
+        <v>0</v>
+      </c>
+      <c r="M839" t="n">
+        <v>31</v>
+      </c>
+      <c r="N839" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="inlineStr">
+        <is>
+          <t>2025/08/06</t>
+        </is>
+      </c>
+      <c r="B840" t="inlineStr">
+        <is>
+          <t>UNFINISHED Project T WuLing 武嶺（佐久間峠） 合歡山山道</t>
+        </is>
+      </c>
+      <c r="C840" t="inlineStr">
+        <is>
+          <t>wrld_5fb84156-598a-43c8-8a2b-2c9aa7c95b40</t>
+        </is>
+      </c>
+      <c r="D840" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E840" t="inlineStr">
+        <is>
+          <t>2025-07-03T13:07:32.404Z</t>
+        </is>
+      </c>
+      <c r="F840" t="n">
+        <v>49</v>
+      </c>
+      <c r="G840" t="n">
+        <v>32</v>
+      </c>
+      <c r="H840" t="n">
+        <v>2</v>
+      </c>
+      <c r="I840" t="n">
+        <v>2</v>
+      </c>
+      <c r="J840" t="n">
+        <v>3</v>
+      </c>
+      <c r="L840" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="M840" t="n">
+        <v>33</v>
+      </c>
+      <c r="N840" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="inlineStr">
+        <is>
+          <t>2025/08/06</t>
+        </is>
+      </c>
+      <c r="B841" t="inlineStr">
+        <is>
+          <t>Project T 9 Turns Taiwan Touge Sacc 九彎十八拐</t>
+        </is>
+      </c>
+      <c r="C841" t="inlineStr">
+        <is>
+          <t>wrld_a6f9cdae-d393-4572-b019-015e4ec6eb35</t>
+        </is>
+      </c>
+      <c r="D841" t="inlineStr">
+        <is>
+          <t>2025-04-09T11:56:42.006Z</t>
+        </is>
+      </c>
+      <c r="E841" t="inlineStr">
+        <is>
+          <t>2025-05-27T15:40:33.056Z</t>
+        </is>
+      </c>
+      <c r="F841" t="n">
+        <v>732</v>
+      </c>
+      <c r="G841" t="n">
+        <v>32</v>
+      </c>
+      <c r="H841" t="n">
+        <v>67</v>
+      </c>
+      <c r="I841" t="n">
+        <v>1</v>
+      </c>
+      <c r="J841" t="n">
+        <v>4</v>
+      </c>
+      <c r="K841" t="n">
+        <v>15</v>
+      </c>
+      <c r="L841" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="M841" t="n">
+        <v>70</v>
+      </c>
+      <c r="N841" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O841" t="n">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="inlineStr">
+        <is>
+          <t>2025/08/06</t>
+        </is>
+      </c>
+      <c r="B842" t="inlineStr">
+        <is>
+          <t>日月潭外周道 Sun Moon Lake</t>
+        </is>
+      </c>
+      <c r="C842" t="inlineStr">
+        <is>
+          <t>wrld_6e465490-9b15-4d2b-b4fe-1ea06e09e55a</t>
+        </is>
+      </c>
+      <c r="D842" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E842" t="inlineStr">
+        <is>
+          <t>2025-05-17T13:55:05.489Z</t>
+        </is>
+      </c>
+      <c r="F842" t="n">
+        <v>79</v>
+      </c>
+      <c r="G842" t="n">
+        <v>32</v>
+      </c>
+      <c r="H842" t="n">
+        <v>2</v>
+      </c>
+      <c r="I842" t="n">
+        <v>0</v>
+      </c>
+      <c r="J842" t="n">
+        <v>3</v>
+      </c>
+      <c r="L842" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="M842" t="n">
+        <v>80</v>
+      </c>
+      <c r="N842" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="inlineStr">
+        <is>
+          <t>2025/08/06</t>
+        </is>
+      </c>
+      <c r="B843" t="inlineStr">
+        <is>
+          <t>Formosa Test</t>
+        </is>
+      </c>
+      <c r="C843" t="inlineStr">
+        <is>
+          <t>wrld_44e2cf46-b090-4c70-b5ba-9f7e7ec89d4f</t>
+        </is>
+      </c>
+      <c r="D843" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E843" t="inlineStr">
+        <is>
+          <t>2025-05-14T15:58:52.154Z</t>
+        </is>
+      </c>
+      <c r="F843" t="n">
+        <v>67</v>
+      </c>
+      <c r="G843" t="n">
+        <v>32</v>
+      </c>
+      <c r="H843" t="n">
+        <v>0</v>
+      </c>
+      <c r="I843" t="n">
+        <v>0</v>
+      </c>
+      <c r="J843" t="n">
+        <v>0</v>
+      </c>
+      <c r="M843" t="n">
+        <v>83</v>
+      </c>
+      <c r="N843" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="inlineStr">
+        <is>
+          <t>2025/08/06</t>
+        </is>
+      </c>
+      <c r="B844" t="inlineStr">
+        <is>
+          <t>星門廣場StarGATE Exhibition</t>
+        </is>
+      </c>
+      <c r="C844" t="inlineStr">
+        <is>
+          <t>wrld_16498412-b9e0-404c-9da7-114484c89ecd</t>
+        </is>
+      </c>
+      <c r="D844" t="inlineStr">
+        <is>
+          <t>2024-07-22T05:06:07.749Z</t>
+        </is>
+      </c>
+      <c r="E844" t="inlineStr">
+        <is>
+          <t>2025-05-08T16:46:38.069Z</t>
+        </is>
+      </c>
+      <c r="F844" t="n">
+        <v>788</v>
+      </c>
+      <c r="G844" t="n">
+        <v>32</v>
+      </c>
+      <c r="H844" t="n">
+        <v>13</v>
+      </c>
+      <c r="I844" t="n">
+        <v>0</v>
+      </c>
+      <c r="J844" t="n">
+        <v>4</v>
+      </c>
+      <c r="K844" t="n">
+        <v>24</v>
+      </c>
+      <c r="L844" t="n">
+        <v>60.62</v>
+      </c>
+      <c r="M844" t="n">
+        <v>89</v>
+      </c>
+      <c r="N844" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O844" t="n">
+        <v>2.07</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="inlineStr">
+        <is>
+          <t>2025/08/06</t>
+        </is>
+      </c>
+      <c r="B845" t="inlineStr">
+        <is>
+          <t>Iseri Nina's Room （Girls Band Cry）</t>
+        </is>
+      </c>
+      <c r="C845" t="inlineStr">
+        <is>
+          <t>wrld_014b19d4-10fc-448d-aaf4-100067cc8eb2</t>
+        </is>
+      </c>
+      <c r="D845" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E845" t="inlineStr">
+        <is>
+          <t>2025-04-10T13:03:37.715Z</t>
+        </is>
+      </c>
+      <c r="F845" t="n">
+        <v>114</v>
+      </c>
+      <c r="G845" t="n">
+        <v>16</v>
+      </c>
+      <c r="H845" t="n">
+        <v>16</v>
+      </c>
+      <c r="I845" t="n">
+        <v>0</v>
+      </c>
+      <c r="J845" t="n">
+        <v>3</v>
+      </c>
+      <c r="L845" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="M845" t="n">
+        <v>117</v>
+      </c>
+      <c r="N845" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="inlineStr">
+        <is>
+          <t>2025/08/06</t>
+        </is>
+      </c>
+      <c r="B846" t="inlineStr">
+        <is>
+          <t>Starriver's Room</t>
+        </is>
+      </c>
+      <c r="C846" t="inlineStr">
+        <is>
+          <t>wrld_c0f03f3e-ca4c-48cb-8aea-14ed13c1ee03</t>
+        </is>
+      </c>
+      <c r="D846" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E846" t="inlineStr">
+        <is>
+          <t>2025-04-08T12:56:39.508Z</t>
+        </is>
+      </c>
+      <c r="F846" t="n">
+        <v>221</v>
+      </c>
+      <c r="G846" t="n">
+        <v>32</v>
+      </c>
+      <c r="H846" t="n">
+        <v>0</v>
+      </c>
+      <c r="I846" t="n">
+        <v>0</v>
+      </c>
+      <c r="J846" t="n">
+        <v>0</v>
+      </c>
+      <c r="M846" t="n">
+        <v>119</v>
+      </c>
+      <c r="N846" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="inlineStr">
+        <is>
+          <t>2025/08/06</t>
+        </is>
+      </c>
+      <c r="B847" t="inlineStr">
+        <is>
+          <t>Metro Formosa Test</t>
+        </is>
+      </c>
+      <c r="C847" t="inlineStr">
+        <is>
+          <t>wrld_39eab7ef-be49-4bb2-bb63-56bc30200b82</t>
+        </is>
+      </c>
+      <c r="D847" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E847" t="inlineStr">
+        <is>
+          <t>2024-11-24T13:59:30.261Z</t>
+        </is>
+      </c>
+      <c r="F847" t="n">
+        <v>20</v>
+      </c>
+      <c r="G847" t="n">
+        <v>32</v>
+      </c>
+      <c r="H847" t="n">
+        <v>0</v>
+      </c>
+      <c r="I847" t="n">
+        <v>0</v>
+      </c>
+      <c r="J847" t="n">
+        <v>0</v>
+      </c>
+      <c r="M847" t="n">
+        <v>254</v>
+      </c>
+      <c r="N847" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="inlineStr">
+        <is>
+          <t>2025/08/06</t>
+        </is>
+      </c>
+      <c r="B848" t="inlineStr">
+        <is>
+          <t>Project ˸ Prototype v0․1․0․ Hangout and chill ǃ （Minecraft Build Project）</t>
+        </is>
+      </c>
+      <c r="C848" t="inlineStr">
+        <is>
+          <t>wrld_fb9540f8-68f1-42e8-9430-558fc2d568c4</t>
+        </is>
+      </c>
+      <c r="D848" t="inlineStr">
+        <is>
+          <t>2023-10-15T12:21:09.717Z</t>
+        </is>
+      </c>
+      <c r="E848" t="inlineStr">
+        <is>
+          <t>2024-09-21T10:55:45.843Z</t>
+        </is>
+      </c>
+      <c r="F848" t="n">
+        <v>4231</v>
+      </c>
+      <c r="G848" t="n">
+        <v>32</v>
+      </c>
+      <c r="H848" t="n">
+        <v>180</v>
+      </c>
+      <c r="I848" t="n">
+        <v>1</v>
+      </c>
+      <c r="J848" t="n">
+        <v>5</v>
+      </c>
+      <c r="K848" t="n">
+        <v>5</v>
+      </c>
+      <c r="L848" t="n">
+        <v>23.51</v>
+      </c>
+      <c r="M848" t="n">
+        <v>318</v>
+      </c>
+      <c r="N848" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O848" t="n">
+        <v>6.41</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="inlineStr">
+        <is>
+          <t>2025/08/06</t>
+        </is>
+      </c>
+      <c r="B849" t="inlineStr">
+        <is>
+          <t>Taipei MRT 大坪林站 by StarRiver（未完成）</t>
+        </is>
+      </c>
+      <c r="C849" t="inlineStr">
+        <is>
+          <t>wrld_b7193f7d-4616-4b3e-8236-e2f4c7da2d8d</t>
+        </is>
+      </c>
+      <c r="D849" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E849" t="inlineStr">
+        <is>
+          <t>2024-09-15T05:18:23.226Z</t>
+        </is>
+      </c>
+      <c r="F849" t="n">
+        <v>116</v>
+      </c>
+      <c r="G849" t="n">
+        <v>32</v>
+      </c>
+      <c r="H849" t="n">
+        <v>2</v>
+      </c>
+      <c r="I849" t="n">
+        <v>0</v>
+      </c>
+      <c r="J849" t="n">
+        <v>4</v>
+      </c>
+      <c r="L849" t="n">
+        <v>58</v>
+      </c>
+      <c r="M849" t="n">
+        <v>325</v>
+      </c>
+      <c r="N849" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="inlineStr">
+        <is>
+          <t>2025/08/06</t>
+        </is>
+      </c>
+      <c r="B850" t="inlineStr">
+        <is>
+          <t>Free Trajectory -A Landscape Recreation Experience</t>
+        </is>
+      </c>
+      <c r="C850" t="inlineStr">
+        <is>
+          <t>wrld_81e98a0f-b8eb-4a9b-b01b-35d26758c41c</t>
+        </is>
+      </c>
+      <c r="D850" t="inlineStr">
+        <is>
+          <t>2024-07-23T14:43:36.014Z</t>
+        </is>
+      </c>
+      <c r="E850" t="inlineStr">
+        <is>
+          <t>2024-07-22T19:52:03.599Z</t>
+        </is>
+      </c>
+      <c r="F850" t="n">
+        <v>362</v>
+      </c>
+      <c r="G850" t="n">
+        <v>32</v>
+      </c>
+      <c r="H850" t="n">
+        <v>3</v>
+      </c>
+      <c r="I850" t="n">
+        <v>0</v>
+      </c>
+      <c r="J850" t="n">
+        <v>4</v>
+      </c>
+      <c r="K850" t="n">
+        <v>0</v>
+      </c>
+      <c r="L850" t="n">
+        <v>120.67</v>
+      </c>
+      <c r="M850" t="n">
+        <v>379</v>
+      </c>
+      <c r="N850" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O850" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="inlineStr">
+        <is>
+          <t>2025/08/06</t>
+        </is>
+      </c>
+      <c r="B851" t="inlineStr">
+        <is>
+          <t>Project：Hide＆Seek LAB（UNFINISHED ）</t>
+        </is>
+      </c>
+      <c r="C851" t="inlineStr">
+        <is>
+          <t>wrld_bac386e9-a543-48e7-a12d-fe9bd3521493</t>
+        </is>
+      </c>
+      <c r="D851" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E851" t="inlineStr">
+        <is>
+          <t>2024-07-11T09:44:06.067Z</t>
+        </is>
+      </c>
+      <c r="F851" t="n">
+        <v>49</v>
+      </c>
+      <c r="G851" t="n">
+        <v>16</v>
+      </c>
+      <c r="H851" t="n">
+        <v>0</v>
+      </c>
+      <c r="I851" t="n">
+        <v>0</v>
+      </c>
+      <c r="J851" t="n">
+        <v>0</v>
+      </c>
+      <c r="M851" t="n">
+        <v>390</v>
+      </c>
+      <c r="N851" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="inlineStr">
+        <is>
+          <t>2025/08/06</t>
+        </is>
+      </c>
+      <c r="B852" t="inlineStr">
+        <is>
+          <t>Simple Green Room（Quest 3 MR）</t>
+        </is>
+      </c>
+      <c r="C852" t="inlineStr">
+        <is>
+          <t>wrld_14e668e2-f41b-4655-9440-51be3be0ae81</t>
+        </is>
+      </c>
+      <c r="D852" t="inlineStr">
+        <is>
+          <t>2024-07-08T21:05:28.545Z</t>
+        </is>
+      </c>
+      <c r="E852" t="inlineStr">
+        <is>
+          <t>2024-07-11T08:38:23.384Z</t>
+        </is>
+      </c>
+      <c r="F852" t="n">
+        <v>589</v>
+      </c>
+      <c r="G852" t="n">
+        <v>8</v>
+      </c>
+      <c r="H852" t="n">
+        <v>34</v>
+      </c>
+      <c r="I852" t="n">
+        <v>4</v>
+      </c>
+      <c r="J852" t="n">
+        <v>4</v>
+      </c>
+      <c r="K852" t="n">
+        <v>263</v>
+      </c>
+      <c r="L852" t="n">
+        <v>17.32</v>
+      </c>
+      <c r="M852" t="n">
+        <v>390</v>
+      </c>
+      <c r="N852" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O852" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="inlineStr">
+        <is>
+          <t>2025/08/06</t>
+        </is>
+      </c>
+      <c r="B853" t="inlineStr">
+        <is>
+          <t>Ruined斷垣殘壁 （測試）</t>
+        </is>
+      </c>
+      <c r="C853" t="inlineStr">
+        <is>
+          <t>wrld_7d7a9a66-df6a-4e2c-96fb-19b4dc53c430</t>
+        </is>
+      </c>
+      <c r="D853" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E853" t="inlineStr">
+        <is>
+          <t>2024-06-04T16:33:51.575Z</t>
+        </is>
+      </c>
+      <c r="F853" t="n">
+        <v>2</v>
+      </c>
+      <c r="G853" t="n">
+        <v>32</v>
+      </c>
+      <c r="H853" t="n">
+        <v>0</v>
+      </c>
+      <c r="I853" t="n">
+        <v>0</v>
+      </c>
+      <c r="J853" t="n">
+        <v>0</v>
+      </c>
+      <c r="M853" t="n">
+        <v>427</v>
+      </c>
+      <c r="N853" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="inlineStr">
+        <is>
+          <t>2025/08/06</t>
+        </is>
+      </c>
+      <c r="B854" t="inlineStr">
+        <is>
+          <t>Project˸ Taiwan</t>
+        </is>
+      </c>
+      <c r="C854" t="inlineStr">
+        <is>
+          <t>wrld_2e5e73d8-758f-4e2d-87db-7770762d52f0</t>
+        </is>
+      </c>
+      <c r="D854" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E854" t="inlineStr">
+        <is>
+          <t>2023-12-08T22:31:41.588Z</t>
+        </is>
+      </c>
+      <c r="F854" t="n">
+        <v>11</v>
+      </c>
+      <c r="G854" t="n">
+        <v>32</v>
+      </c>
+      <c r="H854" t="n">
+        <v>0</v>
+      </c>
+      <c r="I854" t="n">
+        <v>0</v>
+      </c>
+      <c r="J854" t="n">
+        <v>0</v>
+      </c>
+      <c r="K854" t="inlineStr"/>
+      <c r="L854" t="inlineStr"/>
+      <c r="M854" t="n">
+        <v>606</v>
+      </c>
+      <c r="N854" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+      <c r="O854" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/world_info/scraper/worlds.xlsx
+++ b/world_info/scraper/worlds.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O854"/>
+  <dimension ref="A1:O872"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49264,8 +49264,6 @@
       <c r="J854" t="n">
         <v>0</v>
       </c>
-      <c r="K854" t="inlineStr"/>
-      <c r="L854" t="inlineStr"/>
       <c r="M854" t="n">
         <v>606</v>
       </c>
@@ -49274,7 +49272,978 @@
           <t>private</t>
         </is>
       </c>
-      <c r="O854" t="inlineStr"/>
+    </row>
+    <row r="855">
+      <c r="A855" t="inlineStr">
+        <is>
+          <t>2025/08/07</t>
+        </is>
+      </c>
+      <c r="B855" t="inlineStr">
+        <is>
+          <t>Project T 9 Turns Taiwan Touge CVS2 九彎十八拐</t>
+        </is>
+      </c>
+      <c r="C855" t="inlineStr">
+        <is>
+          <t>wrld_c4d985d3-11de-4a89-9e8b-60b0342a1676</t>
+        </is>
+      </c>
+      <c r="D855" t="inlineStr">
+        <is>
+          <t>2025-05-03T22:35:59.524Z</t>
+        </is>
+      </c>
+      <c r="E855" t="inlineStr">
+        <is>
+          <t>2025-08-02T09:39:48.354Z</t>
+        </is>
+      </c>
+      <c r="F855" t="n">
+        <v>2111</v>
+      </c>
+      <c r="G855" t="n">
+        <v>32</v>
+      </c>
+      <c r="H855" t="n">
+        <v>109</v>
+      </c>
+      <c r="I855" t="n">
+        <v>3</v>
+      </c>
+      <c r="J855" t="n">
+        <v>5</v>
+      </c>
+      <c r="K855" t="n">
+        <v>12</v>
+      </c>
+      <c r="L855" t="n">
+        <v>19.37</v>
+      </c>
+      <c r="M855" t="n">
+        <v>5</v>
+      </c>
+      <c r="N855" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O855" t="n">
+        <v>22.22</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="inlineStr">
+        <is>
+          <t>2025/08/07</t>
+        </is>
+      </c>
+      <c r="B856" t="inlineStr">
+        <is>
+          <t>StarRiver Space Program v0․1․1 LiftOff</t>
+        </is>
+      </c>
+      <c r="C856" t="inlineStr">
+        <is>
+          <t>wrld_f3acb654-f2ab-49aa-9108-d261c53c5d64</t>
+        </is>
+      </c>
+      <c r="D856" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E856" t="inlineStr">
+        <is>
+          <t>2025-07-13T11:38:02.242Z</t>
+        </is>
+      </c>
+      <c r="F856" t="n">
+        <v>49</v>
+      </c>
+      <c r="G856" t="n">
+        <v>32</v>
+      </c>
+      <c r="H856" t="n">
+        <v>1</v>
+      </c>
+      <c r="I856" t="n">
+        <v>0</v>
+      </c>
+      <c r="J856" t="n">
+        <v>3</v>
+      </c>
+      <c r="L856" t="n">
+        <v>49</v>
+      </c>
+      <c r="M856" t="n">
+        <v>25</v>
+      </c>
+      <c r="N856" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="inlineStr">
+        <is>
+          <t>2025/08/07</t>
+        </is>
+      </c>
+      <c r="B857" t="inlineStr">
+        <is>
+          <t>UNFINISHED Project T SunMoonLake 日月潭 南投山道</t>
+        </is>
+      </c>
+      <c r="C857" t="inlineStr">
+        <is>
+          <t>wrld_1b189721-fa5d-4c64-a24b-9a2c5b89b3b5</t>
+        </is>
+      </c>
+      <c r="D857" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E857" t="inlineStr">
+        <is>
+          <t>2025-07-06T07:24:59.566Z</t>
+        </is>
+      </c>
+      <c r="F857" t="n">
+        <v>3</v>
+      </c>
+      <c r="G857" t="n">
+        <v>32</v>
+      </c>
+      <c r="H857" t="n">
+        <v>0</v>
+      </c>
+      <c r="I857" t="n">
+        <v>0</v>
+      </c>
+      <c r="J857" t="n">
+        <v>0</v>
+      </c>
+      <c r="M857" t="n">
+        <v>32</v>
+      </c>
+      <c r="N857" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="inlineStr">
+        <is>
+          <t>2025/08/07</t>
+        </is>
+      </c>
+      <c r="B858" t="inlineStr">
+        <is>
+          <t>UNFINISHED Project T WuLing 武嶺（佐久間峠） 合歡山山道</t>
+        </is>
+      </c>
+      <c r="C858" t="inlineStr">
+        <is>
+          <t>wrld_5fb84156-598a-43c8-8a2b-2c9aa7c95b40</t>
+        </is>
+      </c>
+      <c r="D858" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E858" t="inlineStr">
+        <is>
+          <t>2025-07-03T13:07:32.404Z</t>
+        </is>
+      </c>
+      <c r="F858" t="n">
+        <v>49</v>
+      </c>
+      <c r="G858" t="n">
+        <v>32</v>
+      </c>
+      <c r="H858" t="n">
+        <v>2</v>
+      </c>
+      <c r="I858" t="n">
+        <v>2</v>
+      </c>
+      <c r="J858" t="n">
+        <v>3</v>
+      </c>
+      <c r="L858" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="M858" t="n">
+        <v>35</v>
+      </c>
+      <c r="N858" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="inlineStr">
+        <is>
+          <t>2025/08/07</t>
+        </is>
+      </c>
+      <c r="B859" t="inlineStr">
+        <is>
+          <t>Project T 9 Turns Taiwan Touge Sacc 九彎十八拐</t>
+        </is>
+      </c>
+      <c r="C859" t="inlineStr">
+        <is>
+          <t>wrld_a6f9cdae-d393-4572-b019-015e4ec6eb35</t>
+        </is>
+      </c>
+      <c r="D859" t="inlineStr">
+        <is>
+          <t>2025-04-09T11:56:42.006Z</t>
+        </is>
+      </c>
+      <c r="E859" t="inlineStr">
+        <is>
+          <t>2025-05-27T15:40:33.056Z</t>
+        </is>
+      </c>
+      <c r="F859" t="n">
+        <v>735</v>
+      </c>
+      <c r="G859" t="n">
+        <v>32</v>
+      </c>
+      <c r="H859" t="n">
+        <v>67</v>
+      </c>
+      <c r="I859" t="n">
+        <v>2</v>
+      </c>
+      <c r="J859" t="n">
+        <v>4</v>
+      </c>
+      <c r="K859" t="n">
+        <v>15</v>
+      </c>
+      <c r="L859" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="M859" t="n">
+        <v>72</v>
+      </c>
+      <c r="N859" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O859" t="n">
+        <v>6.12</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="inlineStr">
+        <is>
+          <t>2025/08/07</t>
+        </is>
+      </c>
+      <c r="B860" t="inlineStr">
+        <is>
+          <t>日月潭外周道 Sun Moon Lake</t>
+        </is>
+      </c>
+      <c r="C860" t="inlineStr">
+        <is>
+          <t>wrld_6e465490-9b15-4d2b-b4fe-1ea06e09e55a</t>
+        </is>
+      </c>
+      <c r="D860" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E860" t="inlineStr">
+        <is>
+          <t>2025-05-17T13:55:05.489Z</t>
+        </is>
+      </c>
+      <c r="F860" t="n">
+        <v>79</v>
+      </c>
+      <c r="G860" t="n">
+        <v>32</v>
+      </c>
+      <c r="H860" t="n">
+        <v>2</v>
+      </c>
+      <c r="I860" t="n">
+        <v>0</v>
+      </c>
+      <c r="J860" t="n">
+        <v>3</v>
+      </c>
+      <c r="L860" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="M860" t="n">
+        <v>82</v>
+      </c>
+      <c r="N860" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="inlineStr">
+        <is>
+          <t>2025/08/07</t>
+        </is>
+      </c>
+      <c r="B861" t="inlineStr">
+        <is>
+          <t>Formosa Test</t>
+        </is>
+      </c>
+      <c r="C861" t="inlineStr">
+        <is>
+          <t>wrld_44e2cf46-b090-4c70-b5ba-9f7e7ec89d4f</t>
+        </is>
+      </c>
+      <c r="D861" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E861" t="inlineStr">
+        <is>
+          <t>2025-05-14T15:58:52.154Z</t>
+        </is>
+      </c>
+      <c r="F861" t="n">
+        <v>67</v>
+      </c>
+      <c r="G861" t="n">
+        <v>32</v>
+      </c>
+      <c r="H861" t="n">
+        <v>0</v>
+      </c>
+      <c r="I861" t="n">
+        <v>0</v>
+      </c>
+      <c r="J861" t="n">
+        <v>0</v>
+      </c>
+      <c r="M861" t="n">
+        <v>85</v>
+      </c>
+      <c r="N861" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="inlineStr">
+        <is>
+          <t>2025/08/07</t>
+        </is>
+      </c>
+      <c r="B862" t="inlineStr">
+        <is>
+          <t>星門廣場StarGATE Exhibition</t>
+        </is>
+      </c>
+      <c r="C862" t="inlineStr">
+        <is>
+          <t>wrld_16498412-b9e0-404c-9da7-114484c89ecd</t>
+        </is>
+      </c>
+      <c r="D862" t="inlineStr">
+        <is>
+          <t>2024-07-22T05:06:07.749Z</t>
+        </is>
+      </c>
+      <c r="E862" t="inlineStr">
+        <is>
+          <t>2025-05-08T16:46:38.069Z</t>
+        </is>
+      </c>
+      <c r="F862" t="n">
+        <v>788</v>
+      </c>
+      <c r="G862" t="n">
+        <v>32</v>
+      </c>
+      <c r="H862" t="n">
+        <v>13</v>
+      </c>
+      <c r="I862" t="n">
+        <v>0</v>
+      </c>
+      <c r="J862" t="n">
+        <v>4</v>
+      </c>
+      <c r="K862" t="n">
+        <v>24</v>
+      </c>
+      <c r="L862" t="n">
+        <v>60.62</v>
+      </c>
+      <c r="M862" t="n">
+        <v>90</v>
+      </c>
+      <c r="N862" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O862" t="n">
+        <v>2.07</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="inlineStr">
+        <is>
+          <t>2025/08/07</t>
+        </is>
+      </c>
+      <c r="B863" t="inlineStr">
+        <is>
+          <t>Iseri Nina's Room （Girls Band Cry）</t>
+        </is>
+      </c>
+      <c r="C863" t="inlineStr">
+        <is>
+          <t>wrld_014b19d4-10fc-448d-aaf4-100067cc8eb2</t>
+        </is>
+      </c>
+      <c r="D863" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E863" t="inlineStr">
+        <is>
+          <t>2025-04-10T13:03:37.715Z</t>
+        </is>
+      </c>
+      <c r="F863" t="n">
+        <v>114</v>
+      </c>
+      <c r="G863" t="n">
+        <v>16</v>
+      </c>
+      <c r="H863" t="n">
+        <v>16</v>
+      </c>
+      <c r="I863" t="n">
+        <v>0</v>
+      </c>
+      <c r="J863" t="n">
+        <v>3</v>
+      </c>
+      <c r="L863" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="M863" t="n">
+        <v>119</v>
+      </c>
+      <c r="N863" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="inlineStr">
+        <is>
+          <t>2025/08/07</t>
+        </is>
+      </c>
+      <c r="B864" t="inlineStr">
+        <is>
+          <t>Starriver's Room</t>
+        </is>
+      </c>
+      <c r="C864" t="inlineStr">
+        <is>
+          <t>wrld_c0f03f3e-ca4c-48cb-8aea-14ed13c1ee03</t>
+        </is>
+      </c>
+      <c r="D864" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E864" t="inlineStr">
+        <is>
+          <t>2025-04-08T12:56:39.508Z</t>
+        </is>
+      </c>
+      <c r="F864" t="n">
+        <v>223</v>
+      </c>
+      <c r="G864" t="n">
+        <v>32</v>
+      </c>
+      <c r="H864" t="n">
+        <v>0</v>
+      </c>
+      <c r="I864" t="n">
+        <v>0</v>
+      </c>
+      <c r="J864" t="n">
+        <v>0</v>
+      </c>
+      <c r="M864" t="n">
+        <v>121</v>
+      </c>
+      <c r="N864" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="inlineStr">
+        <is>
+          <t>2025/08/07</t>
+        </is>
+      </c>
+      <c r="B865" t="inlineStr">
+        <is>
+          <t>Metro Formosa Test</t>
+        </is>
+      </c>
+      <c r="C865" t="inlineStr">
+        <is>
+          <t>wrld_39eab7ef-be49-4bb2-bb63-56bc30200b82</t>
+        </is>
+      </c>
+      <c r="D865" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E865" t="inlineStr">
+        <is>
+          <t>2024-11-24T13:59:30.261Z</t>
+        </is>
+      </c>
+      <c r="F865" t="n">
+        <v>20</v>
+      </c>
+      <c r="G865" t="n">
+        <v>32</v>
+      </c>
+      <c r="H865" t="n">
+        <v>0</v>
+      </c>
+      <c r="I865" t="n">
+        <v>0</v>
+      </c>
+      <c r="J865" t="n">
+        <v>0</v>
+      </c>
+      <c r="M865" t="n">
+        <v>256</v>
+      </c>
+      <c r="N865" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="inlineStr">
+        <is>
+          <t>2025/08/07</t>
+        </is>
+      </c>
+      <c r="B866" t="inlineStr">
+        <is>
+          <t>Project ˸ Prototype v0․1․0․ Hangout and chill ǃ （Minecraft Build Project）</t>
+        </is>
+      </c>
+      <c r="C866" t="inlineStr">
+        <is>
+          <t>wrld_fb9540f8-68f1-42e8-9430-558fc2d568c4</t>
+        </is>
+      </c>
+      <c r="D866" t="inlineStr">
+        <is>
+          <t>2023-10-15T12:21:09.717Z</t>
+        </is>
+      </c>
+      <c r="E866" t="inlineStr">
+        <is>
+          <t>2024-09-21T10:55:45.843Z</t>
+        </is>
+      </c>
+      <c r="F866" t="n">
+        <v>4231</v>
+      </c>
+      <c r="G866" t="n">
+        <v>32</v>
+      </c>
+      <c r="H866" t="n">
+        <v>180</v>
+      </c>
+      <c r="I866" t="n">
+        <v>1</v>
+      </c>
+      <c r="J866" t="n">
+        <v>5</v>
+      </c>
+      <c r="K866" t="n">
+        <v>5</v>
+      </c>
+      <c r="L866" t="n">
+        <v>23.51</v>
+      </c>
+      <c r="M866" t="n">
+        <v>320</v>
+      </c>
+      <c r="N866" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O866" t="n">
+        <v>6.39</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="inlineStr">
+        <is>
+          <t>2025/08/07</t>
+        </is>
+      </c>
+      <c r="B867" t="inlineStr">
+        <is>
+          <t>Taipei MRT 大坪林站 by StarRiver（未完成）</t>
+        </is>
+      </c>
+      <c r="C867" t="inlineStr">
+        <is>
+          <t>wrld_b7193f7d-4616-4b3e-8236-e2f4c7da2d8d</t>
+        </is>
+      </c>
+      <c r="D867" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E867" t="inlineStr">
+        <is>
+          <t>2024-09-15T05:18:23.226Z</t>
+        </is>
+      </c>
+      <c r="F867" t="n">
+        <v>116</v>
+      </c>
+      <c r="G867" t="n">
+        <v>32</v>
+      </c>
+      <c r="H867" t="n">
+        <v>2</v>
+      </c>
+      <c r="I867" t="n">
+        <v>0</v>
+      </c>
+      <c r="J867" t="n">
+        <v>4</v>
+      </c>
+      <c r="L867" t="n">
+        <v>58</v>
+      </c>
+      <c r="M867" t="n">
+        <v>326</v>
+      </c>
+      <c r="N867" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="inlineStr">
+        <is>
+          <t>2025/08/07</t>
+        </is>
+      </c>
+      <c r="B868" t="inlineStr">
+        <is>
+          <t>Free Trajectory -A Landscape Recreation Experience</t>
+        </is>
+      </c>
+      <c r="C868" t="inlineStr">
+        <is>
+          <t>wrld_81e98a0f-b8eb-4a9b-b01b-35d26758c41c</t>
+        </is>
+      </c>
+      <c r="D868" t="inlineStr">
+        <is>
+          <t>2024-07-23T14:43:36.014Z</t>
+        </is>
+      </c>
+      <c r="E868" t="inlineStr">
+        <is>
+          <t>2024-07-22T19:52:03.599Z</t>
+        </is>
+      </c>
+      <c r="F868" t="n">
+        <v>362</v>
+      </c>
+      <c r="G868" t="n">
+        <v>32</v>
+      </c>
+      <c r="H868" t="n">
+        <v>3</v>
+      </c>
+      <c r="I868" t="n">
+        <v>0</v>
+      </c>
+      <c r="J868" t="n">
+        <v>4</v>
+      </c>
+      <c r="K868" t="n">
+        <v>0</v>
+      </c>
+      <c r="L868" t="n">
+        <v>120.67</v>
+      </c>
+      <c r="M868" t="n">
+        <v>380</v>
+      </c>
+      <c r="N868" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O868" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="inlineStr">
+        <is>
+          <t>2025/08/07</t>
+        </is>
+      </c>
+      <c r="B869" t="inlineStr">
+        <is>
+          <t>Project：Hide＆Seek LAB（UNFINISHED ）</t>
+        </is>
+      </c>
+      <c r="C869" t="inlineStr">
+        <is>
+          <t>wrld_bac386e9-a543-48e7-a12d-fe9bd3521493</t>
+        </is>
+      </c>
+      <c r="D869" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E869" t="inlineStr">
+        <is>
+          <t>2024-07-11T09:44:06.067Z</t>
+        </is>
+      </c>
+      <c r="F869" t="n">
+        <v>49</v>
+      </c>
+      <c r="G869" t="n">
+        <v>16</v>
+      </c>
+      <c r="H869" t="n">
+        <v>0</v>
+      </c>
+      <c r="I869" t="n">
+        <v>0</v>
+      </c>
+      <c r="J869" t="n">
+        <v>0</v>
+      </c>
+      <c r="M869" t="n">
+        <v>392</v>
+      </c>
+      <c r="N869" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="inlineStr">
+        <is>
+          <t>2025/08/07</t>
+        </is>
+      </c>
+      <c r="B870" t="inlineStr">
+        <is>
+          <t>Simple Green Room（Quest 3 MR）</t>
+        </is>
+      </c>
+      <c r="C870" t="inlineStr">
+        <is>
+          <t>wrld_14e668e2-f41b-4655-9440-51be3be0ae81</t>
+        </is>
+      </c>
+      <c r="D870" t="inlineStr">
+        <is>
+          <t>2024-07-08T21:05:28.545Z</t>
+        </is>
+      </c>
+      <c r="E870" t="inlineStr">
+        <is>
+          <t>2024-07-11T08:38:23.384Z</t>
+        </is>
+      </c>
+      <c r="F870" t="n">
+        <v>591</v>
+      </c>
+      <c r="G870" t="n">
+        <v>8</v>
+      </c>
+      <c r="H870" t="n">
+        <v>34</v>
+      </c>
+      <c r="I870" t="n">
+        <v>4</v>
+      </c>
+      <c r="J870" t="n">
+        <v>4</v>
+      </c>
+      <c r="K870" t="n">
+        <v>263</v>
+      </c>
+      <c r="L870" t="n">
+        <v>17.38</v>
+      </c>
+      <c r="M870" t="n">
+        <v>392</v>
+      </c>
+      <c r="N870" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O870" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="inlineStr">
+        <is>
+          <t>2025/08/07</t>
+        </is>
+      </c>
+      <c r="B871" t="inlineStr">
+        <is>
+          <t>Ruined斷垣殘壁 （測試）</t>
+        </is>
+      </c>
+      <c r="C871" t="inlineStr">
+        <is>
+          <t>wrld_7d7a9a66-df6a-4e2c-96fb-19b4dc53c430</t>
+        </is>
+      </c>
+      <c r="D871" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E871" t="inlineStr">
+        <is>
+          <t>2024-06-04T16:33:51.575Z</t>
+        </is>
+      </c>
+      <c r="F871" t="n">
+        <v>2</v>
+      </c>
+      <c r="G871" t="n">
+        <v>32</v>
+      </c>
+      <c r="H871" t="n">
+        <v>0</v>
+      </c>
+      <c r="I871" t="n">
+        <v>0</v>
+      </c>
+      <c r="J871" t="n">
+        <v>0</v>
+      </c>
+      <c r="M871" t="n">
+        <v>428</v>
+      </c>
+      <c r="N871" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="inlineStr">
+        <is>
+          <t>2025/08/07</t>
+        </is>
+      </c>
+      <c r="B872" t="inlineStr">
+        <is>
+          <t>Project˸ Taiwan</t>
+        </is>
+      </c>
+      <c r="C872" t="inlineStr">
+        <is>
+          <t>wrld_2e5e73d8-758f-4e2d-87db-7770762d52f0</t>
+        </is>
+      </c>
+      <c r="D872" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E872" t="inlineStr">
+        <is>
+          <t>2023-12-08T22:31:41.588Z</t>
+        </is>
+      </c>
+      <c r="F872" t="n">
+        <v>11</v>
+      </c>
+      <c r="G872" t="n">
+        <v>32</v>
+      </c>
+      <c r="H872" t="n">
+        <v>0</v>
+      </c>
+      <c r="I872" t="n">
+        <v>0</v>
+      </c>
+      <c r="J872" t="n">
+        <v>0</v>
+      </c>
+      <c r="K872" t="inlineStr"/>
+      <c r="L872" t="inlineStr"/>
+      <c r="M872" t="n">
+        <v>607</v>
+      </c>
+      <c r="N872" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+      <c r="O872" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/world_info/scraper/worlds.xlsx
+++ b/world_info/scraper/worlds.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O872"/>
+  <dimension ref="A1:O926"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50233,8 +50233,6 @@
       <c r="J872" t="n">
         <v>0</v>
       </c>
-      <c r="K872" t="inlineStr"/>
-      <c r="L872" t="inlineStr"/>
       <c r="M872" t="n">
         <v>607</v>
       </c>
@@ -50243,7 +50241,2916 @@
           <t>private</t>
         </is>
       </c>
-      <c r="O872" t="inlineStr"/>
+    </row>
+    <row r="873">
+      <c r="A873" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B873" t="inlineStr">
+        <is>
+          <t>Project T 9 Turns Taiwan Touge CVS2 九彎十八拐</t>
+        </is>
+      </c>
+      <c r="C873" t="inlineStr">
+        <is>
+          <t>wrld_c4d985d3-11de-4a89-9e8b-60b0342a1676</t>
+        </is>
+      </c>
+      <c r="D873" t="inlineStr">
+        <is>
+          <t>2025-05-03T22:35:59.524Z</t>
+        </is>
+      </c>
+      <c r="E873" t="inlineStr">
+        <is>
+          <t>2025-08-02T09:39:48.354Z</t>
+        </is>
+      </c>
+      <c r="F873" t="n">
+        <v>2115</v>
+      </c>
+      <c r="G873" t="n">
+        <v>32</v>
+      </c>
+      <c r="H873" t="n">
+        <v>110</v>
+      </c>
+      <c r="I873" t="n">
+        <v>3</v>
+      </c>
+      <c r="J873" t="n">
+        <v>5</v>
+      </c>
+      <c r="K873" t="n">
+        <v>12</v>
+      </c>
+      <c r="L873" t="n">
+        <v>19.23</v>
+      </c>
+      <c r="M873" t="n">
+        <v>6</v>
+      </c>
+      <c r="N873" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O873" t="n">
+        <v>22.03</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B874" t="inlineStr">
+        <is>
+          <t>StarRiver Space Program v0․1․1 LiftOff</t>
+        </is>
+      </c>
+      <c r="C874" t="inlineStr">
+        <is>
+          <t>wrld_f3acb654-f2ab-49aa-9108-d261c53c5d64</t>
+        </is>
+      </c>
+      <c r="D874" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E874" t="inlineStr">
+        <is>
+          <t>2025-07-13T11:38:02.242Z</t>
+        </is>
+      </c>
+      <c r="F874" t="n">
+        <v>49</v>
+      </c>
+      <c r="G874" t="n">
+        <v>32</v>
+      </c>
+      <c r="H874" t="n">
+        <v>1</v>
+      </c>
+      <c r="I874" t="n">
+        <v>0</v>
+      </c>
+      <c r="J874" t="n">
+        <v>3</v>
+      </c>
+      <c r="L874" t="n">
+        <v>49</v>
+      </c>
+      <c r="M874" t="n">
+        <v>26</v>
+      </c>
+      <c r="N874" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B875" t="inlineStr">
+        <is>
+          <t>UNFINISHED Project T SunMoonLake 日月潭 南投山道</t>
+        </is>
+      </c>
+      <c r="C875" t="inlineStr">
+        <is>
+          <t>wrld_1b189721-fa5d-4c64-a24b-9a2c5b89b3b5</t>
+        </is>
+      </c>
+      <c r="D875" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E875" t="inlineStr">
+        <is>
+          <t>2025-07-06T07:24:59.566Z</t>
+        </is>
+      </c>
+      <c r="F875" t="n">
+        <v>3</v>
+      </c>
+      <c r="G875" t="n">
+        <v>32</v>
+      </c>
+      <c r="H875" t="n">
+        <v>0</v>
+      </c>
+      <c r="I875" t="n">
+        <v>0</v>
+      </c>
+      <c r="J875" t="n">
+        <v>0</v>
+      </c>
+      <c r="M875" t="n">
+        <v>33</v>
+      </c>
+      <c r="N875" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B876" t="inlineStr">
+        <is>
+          <t>UNFINISHED Project T WuLing 武嶺（佐久間峠） 合歡山山道</t>
+        </is>
+      </c>
+      <c r="C876" t="inlineStr">
+        <is>
+          <t>wrld_5fb84156-598a-43c8-8a2b-2c9aa7c95b40</t>
+        </is>
+      </c>
+      <c r="D876" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E876" t="inlineStr">
+        <is>
+          <t>2025-07-03T13:07:32.404Z</t>
+        </is>
+      </c>
+      <c r="F876" t="n">
+        <v>49</v>
+      </c>
+      <c r="G876" t="n">
+        <v>32</v>
+      </c>
+      <c r="H876" t="n">
+        <v>2</v>
+      </c>
+      <c r="I876" t="n">
+        <v>2</v>
+      </c>
+      <c r="J876" t="n">
+        <v>3</v>
+      </c>
+      <c r="L876" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="M876" t="n">
+        <v>36</v>
+      </c>
+      <c r="N876" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B877" t="inlineStr">
+        <is>
+          <t>Project T 9 Turns Taiwan Touge Sacc 九彎十八拐</t>
+        </is>
+      </c>
+      <c r="C877" t="inlineStr">
+        <is>
+          <t>wrld_a6f9cdae-d393-4572-b019-015e4ec6eb35</t>
+        </is>
+      </c>
+      <c r="D877" t="inlineStr">
+        <is>
+          <t>2025-04-09T11:56:42.006Z</t>
+        </is>
+      </c>
+      <c r="E877" t="inlineStr">
+        <is>
+          <t>2025-05-27T15:40:33.056Z</t>
+        </is>
+      </c>
+      <c r="F877" t="n">
+        <v>735</v>
+      </c>
+      <c r="G877" t="n">
+        <v>32</v>
+      </c>
+      <c r="H877" t="n">
+        <v>67</v>
+      </c>
+      <c r="I877" t="n">
+        <v>2</v>
+      </c>
+      <c r="J877" t="n">
+        <v>4</v>
+      </c>
+      <c r="K877" t="n">
+        <v>15</v>
+      </c>
+      <c r="L877" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="M877" t="n">
+        <v>73</v>
+      </c>
+      <c r="N877" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O877" t="n">
+        <v>6.07</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B878" t="inlineStr">
+        <is>
+          <t>日月潭外周道 Sun Moon Lake</t>
+        </is>
+      </c>
+      <c r="C878" t="inlineStr">
+        <is>
+          <t>wrld_6e465490-9b15-4d2b-b4fe-1ea06e09e55a</t>
+        </is>
+      </c>
+      <c r="D878" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E878" t="inlineStr">
+        <is>
+          <t>2025-05-17T13:55:05.489Z</t>
+        </is>
+      </c>
+      <c r="F878" t="n">
+        <v>79</v>
+      </c>
+      <c r="G878" t="n">
+        <v>32</v>
+      </c>
+      <c r="H878" t="n">
+        <v>2</v>
+      </c>
+      <c r="I878" t="n">
+        <v>0</v>
+      </c>
+      <c r="J878" t="n">
+        <v>3</v>
+      </c>
+      <c r="L878" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="M878" t="n">
+        <v>83</v>
+      </c>
+      <c r="N878" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B879" t="inlineStr">
+        <is>
+          <t>Formosa Test</t>
+        </is>
+      </c>
+      <c r="C879" t="inlineStr">
+        <is>
+          <t>wrld_44e2cf46-b090-4c70-b5ba-9f7e7ec89d4f</t>
+        </is>
+      </c>
+      <c r="D879" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E879" t="inlineStr">
+        <is>
+          <t>2025-05-14T15:58:52.154Z</t>
+        </is>
+      </c>
+      <c r="F879" t="n">
+        <v>67</v>
+      </c>
+      <c r="G879" t="n">
+        <v>32</v>
+      </c>
+      <c r="H879" t="n">
+        <v>0</v>
+      </c>
+      <c r="I879" t="n">
+        <v>0</v>
+      </c>
+      <c r="J879" t="n">
+        <v>0</v>
+      </c>
+      <c r="M879" t="n">
+        <v>86</v>
+      </c>
+      <c r="N879" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B880" t="inlineStr">
+        <is>
+          <t>星門廣場StarGATE Exhibition</t>
+        </is>
+      </c>
+      <c r="C880" t="inlineStr">
+        <is>
+          <t>wrld_16498412-b9e0-404c-9da7-114484c89ecd</t>
+        </is>
+      </c>
+      <c r="D880" t="inlineStr">
+        <is>
+          <t>2024-07-22T05:06:07.749Z</t>
+        </is>
+      </c>
+      <c r="E880" t="inlineStr">
+        <is>
+          <t>2025-05-08T16:46:38.069Z</t>
+        </is>
+      </c>
+      <c r="F880" t="n">
+        <v>788</v>
+      </c>
+      <c r="G880" t="n">
+        <v>32</v>
+      </c>
+      <c r="H880" t="n">
+        <v>13</v>
+      </c>
+      <c r="I880" t="n">
+        <v>0</v>
+      </c>
+      <c r="J880" t="n">
+        <v>4</v>
+      </c>
+      <c r="K880" t="n">
+        <v>24</v>
+      </c>
+      <c r="L880" t="n">
+        <v>60.62</v>
+      </c>
+      <c r="M880" t="n">
+        <v>91</v>
+      </c>
+      <c r="N880" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O880" t="n">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B881" t="inlineStr">
+        <is>
+          <t>Iseri Nina's Room （Girls Band Cry）</t>
+        </is>
+      </c>
+      <c r="C881" t="inlineStr">
+        <is>
+          <t>wrld_014b19d4-10fc-448d-aaf4-100067cc8eb2</t>
+        </is>
+      </c>
+      <c r="D881" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E881" t="inlineStr">
+        <is>
+          <t>2025-04-10T13:03:37.715Z</t>
+        </is>
+      </c>
+      <c r="F881" t="n">
+        <v>116</v>
+      </c>
+      <c r="G881" t="n">
+        <v>16</v>
+      </c>
+      <c r="H881" t="n">
+        <v>16</v>
+      </c>
+      <c r="I881" t="n">
+        <v>1</v>
+      </c>
+      <c r="J881" t="n">
+        <v>3</v>
+      </c>
+      <c r="L881" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="M881" t="n">
+        <v>120</v>
+      </c>
+      <c r="N881" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B882" t="inlineStr">
+        <is>
+          <t>Starriver's Room</t>
+        </is>
+      </c>
+      <c r="C882" t="inlineStr">
+        <is>
+          <t>wrld_c0f03f3e-ca4c-48cb-8aea-14ed13c1ee03</t>
+        </is>
+      </c>
+      <c r="D882" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E882" t="inlineStr">
+        <is>
+          <t>2025-04-08T12:56:39.508Z</t>
+        </is>
+      </c>
+      <c r="F882" t="n">
+        <v>224</v>
+      </c>
+      <c r="G882" t="n">
+        <v>32</v>
+      </c>
+      <c r="H882" t="n">
+        <v>0</v>
+      </c>
+      <c r="I882" t="n">
+        <v>0</v>
+      </c>
+      <c r="J882" t="n">
+        <v>0</v>
+      </c>
+      <c r="M882" t="n">
+        <v>122</v>
+      </c>
+      <c r="N882" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B883" t="inlineStr">
+        <is>
+          <t>Metro Formosa Test</t>
+        </is>
+      </c>
+      <c r="C883" t="inlineStr">
+        <is>
+          <t>wrld_39eab7ef-be49-4bb2-bb63-56bc30200b82</t>
+        </is>
+      </c>
+      <c r="D883" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E883" t="inlineStr">
+        <is>
+          <t>2024-11-24T13:59:30.261Z</t>
+        </is>
+      </c>
+      <c r="F883" t="n">
+        <v>20</v>
+      </c>
+      <c r="G883" t="n">
+        <v>32</v>
+      </c>
+      <c r="H883" t="n">
+        <v>0</v>
+      </c>
+      <c r="I883" t="n">
+        <v>0</v>
+      </c>
+      <c r="J883" t="n">
+        <v>0</v>
+      </c>
+      <c r="M883" t="n">
+        <v>257</v>
+      </c>
+      <c r="N883" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B884" t="inlineStr">
+        <is>
+          <t>Project ˸ Prototype v0․1․0․ Hangout and chill ǃ （Minecraft Build Project）</t>
+        </is>
+      </c>
+      <c r="C884" t="inlineStr">
+        <is>
+          <t>wrld_fb9540f8-68f1-42e8-9430-558fc2d568c4</t>
+        </is>
+      </c>
+      <c r="D884" t="inlineStr">
+        <is>
+          <t>2023-10-15T12:21:09.717Z</t>
+        </is>
+      </c>
+      <c r="E884" t="inlineStr">
+        <is>
+          <t>2024-09-21T10:55:45.843Z</t>
+        </is>
+      </c>
+      <c r="F884" t="n">
+        <v>4238</v>
+      </c>
+      <c r="G884" t="n">
+        <v>32</v>
+      </c>
+      <c r="H884" t="n">
+        <v>181</v>
+      </c>
+      <c r="I884" t="n">
+        <v>1</v>
+      </c>
+      <c r="J884" t="n">
+        <v>5</v>
+      </c>
+      <c r="K884" t="n">
+        <v>5</v>
+      </c>
+      <c r="L884" t="n">
+        <v>23.41</v>
+      </c>
+      <c r="M884" t="n">
+        <v>321</v>
+      </c>
+      <c r="N884" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O884" t="n">
+        <v>6.39</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B885" t="inlineStr">
+        <is>
+          <t>Taipei MRT 大坪林站 by StarRiver（未完成）</t>
+        </is>
+      </c>
+      <c r="C885" t="inlineStr">
+        <is>
+          <t>wrld_b7193f7d-4616-4b3e-8236-e2f4c7da2d8d</t>
+        </is>
+      </c>
+      <c r="D885" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E885" t="inlineStr">
+        <is>
+          <t>2024-09-15T05:18:23.226Z</t>
+        </is>
+      </c>
+      <c r="F885" t="n">
+        <v>116</v>
+      </c>
+      <c r="G885" t="n">
+        <v>32</v>
+      </c>
+      <c r="H885" t="n">
+        <v>2</v>
+      </c>
+      <c r="I885" t="n">
+        <v>0</v>
+      </c>
+      <c r="J885" t="n">
+        <v>4</v>
+      </c>
+      <c r="L885" t="n">
+        <v>58</v>
+      </c>
+      <c r="M885" t="n">
+        <v>327</v>
+      </c>
+      <c r="N885" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B886" t="inlineStr">
+        <is>
+          <t>Free Trajectory -A Landscape Recreation Experience</t>
+        </is>
+      </c>
+      <c r="C886" t="inlineStr">
+        <is>
+          <t>wrld_81e98a0f-b8eb-4a9b-b01b-35d26758c41c</t>
+        </is>
+      </c>
+      <c r="D886" t="inlineStr">
+        <is>
+          <t>2024-07-23T14:43:36.014Z</t>
+        </is>
+      </c>
+      <c r="E886" t="inlineStr">
+        <is>
+          <t>2024-07-22T19:52:03.599Z</t>
+        </is>
+      </c>
+      <c r="F886" t="n">
+        <v>362</v>
+      </c>
+      <c r="G886" t="n">
+        <v>32</v>
+      </c>
+      <c r="H886" t="n">
+        <v>3</v>
+      </c>
+      <c r="I886" t="n">
+        <v>0</v>
+      </c>
+      <c r="J886" t="n">
+        <v>4</v>
+      </c>
+      <c r="K886" t="n">
+        <v>0</v>
+      </c>
+      <c r="L886" t="n">
+        <v>120.67</v>
+      </c>
+      <c r="M886" t="n">
+        <v>381</v>
+      </c>
+      <c r="N886" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O886" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B887" t="inlineStr">
+        <is>
+          <t>Project：Hide＆Seek LAB（UNFINISHED ）</t>
+        </is>
+      </c>
+      <c r="C887" t="inlineStr">
+        <is>
+          <t>wrld_bac386e9-a543-48e7-a12d-fe9bd3521493</t>
+        </is>
+      </c>
+      <c r="D887" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E887" t="inlineStr">
+        <is>
+          <t>2024-07-11T09:44:06.067Z</t>
+        </is>
+      </c>
+      <c r="F887" t="n">
+        <v>49</v>
+      </c>
+      <c r="G887" t="n">
+        <v>16</v>
+      </c>
+      <c r="H887" t="n">
+        <v>0</v>
+      </c>
+      <c r="I887" t="n">
+        <v>0</v>
+      </c>
+      <c r="J887" t="n">
+        <v>0</v>
+      </c>
+      <c r="M887" t="n">
+        <v>393</v>
+      </c>
+      <c r="N887" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B888" t="inlineStr">
+        <is>
+          <t>Simple Green Room（Quest 3 MR）</t>
+        </is>
+      </c>
+      <c r="C888" t="inlineStr">
+        <is>
+          <t>wrld_14e668e2-f41b-4655-9440-51be3be0ae81</t>
+        </is>
+      </c>
+      <c r="D888" t="inlineStr">
+        <is>
+          <t>2024-07-08T21:05:28.545Z</t>
+        </is>
+      </c>
+      <c r="E888" t="inlineStr">
+        <is>
+          <t>2024-07-11T08:38:23.384Z</t>
+        </is>
+      </c>
+      <c r="F888" t="n">
+        <v>595</v>
+      </c>
+      <c r="G888" t="n">
+        <v>8</v>
+      </c>
+      <c r="H888" t="n">
+        <v>34</v>
+      </c>
+      <c r="I888" t="n">
+        <v>4</v>
+      </c>
+      <c r="J888" t="n">
+        <v>4</v>
+      </c>
+      <c r="K888" t="n">
+        <v>263</v>
+      </c>
+      <c r="L888" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="M888" t="n">
+        <v>393</v>
+      </c>
+      <c r="N888" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O888" t="n">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B889" t="inlineStr">
+        <is>
+          <t>Ruined斷垣殘壁 （測試）</t>
+        </is>
+      </c>
+      <c r="C889" t="inlineStr">
+        <is>
+          <t>wrld_7d7a9a66-df6a-4e2c-96fb-19b4dc53c430</t>
+        </is>
+      </c>
+      <c r="D889" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E889" t="inlineStr">
+        <is>
+          <t>2024-06-04T16:33:51.575Z</t>
+        </is>
+      </c>
+      <c r="F889" t="n">
+        <v>2</v>
+      </c>
+      <c r="G889" t="n">
+        <v>32</v>
+      </c>
+      <c r="H889" t="n">
+        <v>0</v>
+      </c>
+      <c r="I889" t="n">
+        <v>0</v>
+      </c>
+      <c r="J889" t="n">
+        <v>0</v>
+      </c>
+      <c r="M889" t="n">
+        <v>429</v>
+      </c>
+      <c r="N889" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B890" t="inlineStr">
+        <is>
+          <t>Project˸ Taiwan</t>
+        </is>
+      </c>
+      <c r="C890" t="inlineStr">
+        <is>
+          <t>wrld_2e5e73d8-758f-4e2d-87db-7770762d52f0</t>
+        </is>
+      </c>
+      <c r="D890" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E890" t="inlineStr">
+        <is>
+          <t>2023-12-08T22:31:41.588Z</t>
+        </is>
+      </c>
+      <c r="F890" t="n">
+        <v>11</v>
+      </c>
+      <c r="G890" t="n">
+        <v>32</v>
+      </c>
+      <c r="H890" t="n">
+        <v>0</v>
+      </c>
+      <c r="I890" t="n">
+        <v>0</v>
+      </c>
+      <c r="J890" t="n">
+        <v>0</v>
+      </c>
+      <c r="M890" t="n">
+        <v>608</v>
+      </c>
+      <c r="N890" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="inlineStr">
+        <is>
+          <t>2025/08/09</t>
+        </is>
+      </c>
+      <c r="B891" t="inlineStr">
+        <is>
+          <t>Project T 9 Turns Taiwan Touge CVS2 九彎十八拐</t>
+        </is>
+      </c>
+      <c r="C891" t="inlineStr">
+        <is>
+          <t>wrld_c4d985d3-11de-4a89-9e8b-60b0342a1676</t>
+        </is>
+      </c>
+      <c r="D891" t="inlineStr">
+        <is>
+          <t>2025-05-03T22:35:59.524Z</t>
+        </is>
+      </c>
+      <c r="E891" t="inlineStr">
+        <is>
+          <t>2025-08-02T09:39:48.354Z</t>
+        </is>
+      </c>
+      <c r="F891" t="n">
+        <v>2116</v>
+      </c>
+      <c r="G891" t="n">
+        <v>32</v>
+      </c>
+      <c r="H891" t="n">
+        <v>109</v>
+      </c>
+      <c r="I891" t="n">
+        <v>3</v>
+      </c>
+      <c r="J891" t="n">
+        <v>5</v>
+      </c>
+      <c r="K891" t="n">
+        <v>12</v>
+      </c>
+      <c r="L891" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="M891" t="n">
+        <v>6</v>
+      </c>
+      <c r="N891" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O891" t="n">
+        <v>21.81</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="inlineStr">
+        <is>
+          <t>2025/08/09</t>
+        </is>
+      </c>
+      <c r="B892" t="inlineStr">
+        <is>
+          <t>StarRiver Space Program v0․1․1 LiftOff</t>
+        </is>
+      </c>
+      <c r="C892" t="inlineStr">
+        <is>
+          <t>wrld_f3acb654-f2ab-49aa-9108-d261c53c5d64</t>
+        </is>
+      </c>
+      <c r="D892" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E892" t="inlineStr">
+        <is>
+          <t>2025-07-13T11:38:02.242Z</t>
+        </is>
+      </c>
+      <c r="F892" t="n">
+        <v>49</v>
+      </c>
+      <c r="G892" t="n">
+        <v>32</v>
+      </c>
+      <c r="H892" t="n">
+        <v>1</v>
+      </c>
+      <c r="I892" t="n">
+        <v>0</v>
+      </c>
+      <c r="J892" t="n">
+        <v>3</v>
+      </c>
+      <c r="L892" t="n">
+        <v>49</v>
+      </c>
+      <c r="M892" t="n">
+        <v>26</v>
+      </c>
+      <c r="N892" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="inlineStr">
+        <is>
+          <t>2025/08/09</t>
+        </is>
+      </c>
+      <c r="B893" t="inlineStr">
+        <is>
+          <t>UNFINISHED Project T SunMoonLake 日月潭 南投山道</t>
+        </is>
+      </c>
+      <c r="C893" t="inlineStr">
+        <is>
+          <t>wrld_1b189721-fa5d-4c64-a24b-9a2c5b89b3b5</t>
+        </is>
+      </c>
+      <c r="D893" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E893" t="inlineStr">
+        <is>
+          <t>2025-07-06T07:24:59.566Z</t>
+        </is>
+      </c>
+      <c r="F893" t="n">
+        <v>3</v>
+      </c>
+      <c r="G893" t="n">
+        <v>32</v>
+      </c>
+      <c r="H893" t="n">
+        <v>0</v>
+      </c>
+      <c r="I893" t="n">
+        <v>0</v>
+      </c>
+      <c r="J893" t="n">
+        <v>0</v>
+      </c>
+      <c r="M893" t="n">
+        <v>33</v>
+      </c>
+      <c r="N893" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="inlineStr">
+        <is>
+          <t>2025/08/09</t>
+        </is>
+      </c>
+      <c r="B894" t="inlineStr">
+        <is>
+          <t>UNFINISHED Project T WuLing 武嶺（佐久間峠） 合歡山山道</t>
+        </is>
+      </c>
+      <c r="C894" t="inlineStr">
+        <is>
+          <t>wrld_5fb84156-598a-43c8-8a2b-2c9aa7c95b40</t>
+        </is>
+      </c>
+      <c r="D894" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E894" t="inlineStr">
+        <is>
+          <t>2025-07-03T13:07:32.404Z</t>
+        </is>
+      </c>
+      <c r="F894" t="n">
+        <v>49</v>
+      </c>
+      <c r="G894" t="n">
+        <v>32</v>
+      </c>
+      <c r="H894" t="n">
+        <v>2</v>
+      </c>
+      <c r="I894" t="n">
+        <v>0</v>
+      </c>
+      <c r="J894" t="n">
+        <v>3</v>
+      </c>
+      <c r="L894" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="M894" t="n">
+        <v>36</v>
+      </c>
+      <c r="N894" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="inlineStr">
+        <is>
+          <t>2025/08/09</t>
+        </is>
+      </c>
+      <c r="B895" t="inlineStr">
+        <is>
+          <t>Project T 9 Turns Taiwan Touge Sacc 九彎十八拐</t>
+        </is>
+      </c>
+      <c r="C895" t="inlineStr">
+        <is>
+          <t>wrld_a6f9cdae-d393-4572-b019-015e4ec6eb35</t>
+        </is>
+      </c>
+      <c r="D895" t="inlineStr">
+        <is>
+          <t>2025-04-09T11:56:42.006Z</t>
+        </is>
+      </c>
+      <c r="E895" t="inlineStr">
+        <is>
+          <t>2025-05-27T15:40:33.056Z</t>
+        </is>
+      </c>
+      <c r="F895" t="n">
+        <v>735</v>
+      </c>
+      <c r="G895" t="n">
+        <v>32</v>
+      </c>
+      <c r="H895" t="n">
+        <v>67</v>
+      </c>
+      <c r="I895" t="n">
+        <v>2</v>
+      </c>
+      <c r="J895" t="n">
+        <v>4</v>
+      </c>
+      <c r="K895" t="n">
+        <v>15</v>
+      </c>
+      <c r="L895" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="M895" t="n">
+        <v>73</v>
+      </c>
+      <c r="N895" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O895" t="n">
+        <v>6.07</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="inlineStr">
+        <is>
+          <t>2025/08/09</t>
+        </is>
+      </c>
+      <c r="B896" t="inlineStr">
+        <is>
+          <t>日月潭外周道 Sun Moon Lake</t>
+        </is>
+      </c>
+      <c r="C896" t="inlineStr">
+        <is>
+          <t>wrld_6e465490-9b15-4d2b-b4fe-1ea06e09e55a</t>
+        </is>
+      </c>
+      <c r="D896" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E896" t="inlineStr">
+        <is>
+          <t>2025-05-17T13:55:05.489Z</t>
+        </is>
+      </c>
+      <c r="F896" t="n">
+        <v>79</v>
+      </c>
+      <c r="G896" t="n">
+        <v>32</v>
+      </c>
+      <c r="H896" t="n">
+        <v>2</v>
+      </c>
+      <c r="I896" t="n">
+        <v>0</v>
+      </c>
+      <c r="J896" t="n">
+        <v>3</v>
+      </c>
+      <c r="L896" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="M896" t="n">
+        <v>83</v>
+      </c>
+      <c r="N896" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="inlineStr">
+        <is>
+          <t>2025/08/09</t>
+        </is>
+      </c>
+      <c r="B897" t="inlineStr">
+        <is>
+          <t>Formosa Test</t>
+        </is>
+      </c>
+      <c r="C897" t="inlineStr">
+        <is>
+          <t>wrld_44e2cf46-b090-4c70-b5ba-9f7e7ec89d4f</t>
+        </is>
+      </c>
+      <c r="D897" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E897" t="inlineStr">
+        <is>
+          <t>2025-05-14T15:58:52.154Z</t>
+        </is>
+      </c>
+      <c r="F897" t="n">
+        <v>70</v>
+      </c>
+      <c r="G897" t="n">
+        <v>32</v>
+      </c>
+      <c r="H897" t="n">
+        <v>0</v>
+      </c>
+      <c r="I897" t="n">
+        <v>0</v>
+      </c>
+      <c r="J897" t="n">
+        <v>0</v>
+      </c>
+      <c r="M897" t="n">
+        <v>86</v>
+      </c>
+      <c r="N897" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="inlineStr">
+        <is>
+          <t>2025/08/09</t>
+        </is>
+      </c>
+      <c r="B898" t="inlineStr">
+        <is>
+          <t>星門廣場StarGATE Exhibition</t>
+        </is>
+      </c>
+      <c r="C898" t="inlineStr">
+        <is>
+          <t>wrld_16498412-b9e0-404c-9da7-114484c89ecd</t>
+        </is>
+      </c>
+      <c r="D898" t="inlineStr">
+        <is>
+          <t>2024-07-22T05:06:07.749Z</t>
+        </is>
+      </c>
+      <c r="E898" t="inlineStr">
+        <is>
+          <t>2025-05-08T16:46:38.069Z</t>
+        </is>
+      </c>
+      <c r="F898" t="n">
+        <v>788</v>
+      </c>
+      <c r="G898" t="n">
+        <v>32</v>
+      </c>
+      <c r="H898" t="n">
+        <v>13</v>
+      </c>
+      <c r="I898" t="n">
+        <v>0</v>
+      </c>
+      <c r="J898" t="n">
+        <v>4</v>
+      </c>
+      <c r="K898" t="n">
+        <v>24</v>
+      </c>
+      <c r="L898" t="n">
+        <v>60.62</v>
+      </c>
+      <c r="M898" t="n">
+        <v>92</v>
+      </c>
+      <c r="N898" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O898" t="n">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="inlineStr">
+        <is>
+          <t>2025/08/09</t>
+        </is>
+      </c>
+      <c r="B899" t="inlineStr">
+        <is>
+          <t>Iseri Nina's Room （Girls Band Cry）</t>
+        </is>
+      </c>
+      <c r="C899" t="inlineStr">
+        <is>
+          <t>wrld_014b19d4-10fc-448d-aaf4-100067cc8eb2</t>
+        </is>
+      </c>
+      <c r="D899" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E899" t="inlineStr">
+        <is>
+          <t>2025-04-10T13:03:37.715Z</t>
+        </is>
+      </c>
+      <c r="F899" t="n">
+        <v>117</v>
+      </c>
+      <c r="G899" t="n">
+        <v>16</v>
+      </c>
+      <c r="H899" t="n">
+        <v>16</v>
+      </c>
+      <c r="I899" t="n">
+        <v>1</v>
+      </c>
+      <c r="J899" t="n">
+        <v>3</v>
+      </c>
+      <c r="L899" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="M899" t="n">
+        <v>120</v>
+      </c>
+      <c r="N899" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="inlineStr">
+        <is>
+          <t>2025/08/09</t>
+        </is>
+      </c>
+      <c r="B900" t="inlineStr">
+        <is>
+          <t>Starriver's Room</t>
+        </is>
+      </c>
+      <c r="C900" t="inlineStr">
+        <is>
+          <t>wrld_c0f03f3e-ca4c-48cb-8aea-14ed13c1ee03</t>
+        </is>
+      </c>
+      <c r="D900" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E900" t="inlineStr">
+        <is>
+          <t>2025-04-08T12:56:39.508Z</t>
+        </is>
+      </c>
+      <c r="F900" t="n">
+        <v>224</v>
+      </c>
+      <c r="G900" t="n">
+        <v>32</v>
+      </c>
+      <c r="H900" t="n">
+        <v>0</v>
+      </c>
+      <c r="I900" t="n">
+        <v>0</v>
+      </c>
+      <c r="J900" t="n">
+        <v>0</v>
+      </c>
+      <c r="M900" t="n">
+        <v>122</v>
+      </c>
+      <c r="N900" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="inlineStr">
+        <is>
+          <t>2025/08/09</t>
+        </is>
+      </c>
+      <c r="B901" t="inlineStr">
+        <is>
+          <t>Metro Formosa Test</t>
+        </is>
+      </c>
+      <c r="C901" t="inlineStr">
+        <is>
+          <t>wrld_39eab7ef-be49-4bb2-bb63-56bc30200b82</t>
+        </is>
+      </c>
+      <c r="D901" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E901" t="inlineStr">
+        <is>
+          <t>2024-11-24T13:59:30.261Z</t>
+        </is>
+      </c>
+      <c r="F901" t="n">
+        <v>20</v>
+      </c>
+      <c r="G901" t="n">
+        <v>32</v>
+      </c>
+      <c r="H901" t="n">
+        <v>0</v>
+      </c>
+      <c r="I901" t="n">
+        <v>0</v>
+      </c>
+      <c r="J901" t="n">
+        <v>0</v>
+      </c>
+      <c r="M901" t="n">
+        <v>257</v>
+      </c>
+      <c r="N901" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="inlineStr">
+        <is>
+          <t>2025/08/09</t>
+        </is>
+      </c>
+      <c r="B902" t="inlineStr">
+        <is>
+          <t>Project ˸ Prototype v0․1․0․ Hangout and chill ǃ （Minecraft Build Project）</t>
+        </is>
+      </c>
+      <c r="C902" t="inlineStr">
+        <is>
+          <t>wrld_fb9540f8-68f1-42e8-9430-558fc2d568c4</t>
+        </is>
+      </c>
+      <c r="D902" t="inlineStr">
+        <is>
+          <t>2023-10-15T12:21:09.717Z</t>
+        </is>
+      </c>
+      <c r="E902" t="inlineStr">
+        <is>
+          <t>2024-09-21T10:55:45.843Z</t>
+        </is>
+      </c>
+      <c r="F902" t="n">
+        <v>4238</v>
+      </c>
+      <c r="G902" t="n">
+        <v>32</v>
+      </c>
+      <c r="H902" t="n">
+        <v>181</v>
+      </c>
+      <c r="I902" t="n">
+        <v>1</v>
+      </c>
+      <c r="J902" t="n">
+        <v>5</v>
+      </c>
+      <c r="K902" t="n">
+        <v>5</v>
+      </c>
+      <c r="L902" t="n">
+        <v>23.41</v>
+      </c>
+      <c r="M902" t="n">
+        <v>321</v>
+      </c>
+      <c r="N902" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O902" t="n">
+        <v>6.39</v>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="inlineStr">
+        <is>
+          <t>2025/08/09</t>
+        </is>
+      </c>
+      <c r="B903" t="inlineStr">
+        <is>
+          <t>Taipei MRT 大坪林站 by StarRiver（未完成）</t>
+        </is>
+      </c>
+      <c r="C903" t="inlineStr">
+        <is>
+          <t>wrld_b7193f7d-4616-4b3e-8236-e2f4c7da2d8d</t>
+        </is>
+      </c>
+      <c r="D903" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E903" t="inlineStr">
+        <is>
+          <t>2024-09-15T05:18:23.226Z</t>
+        </is>
+      </c>
+      <c r="F903" t="n">
+        <v>116</v>
+      </c>
+      <c r="G903" t="n">
+        <v>32</v>
+      </c>
+      <c r="H903" t="n">
+        <v>2</v>
+      </c>
+      <c r="I903" t="n">
+        <v>0</v>
+      </c>
+      <c r="J903" t="n">
+        <v>4</v>
+      </c>
+      <c r="L903" t="n">
+        <v>58</v>
+      </c>
+      <c r="M903" t="n">
+        <v>327</v>
+      </c>
+      <c r="N903" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="inlineStr">
+        <is>
+          <t>2025/08/09</t>
+        </is>
+      </c>
+      <c r="B904" t="inlineStr">
+        <is>
+          <t>Free Trajectory -A Landscape Recreation Experience</t>
+        </is>
+      </c>
+      <c r="C904" t="inlineStr">
+        <is>
+          <t>wrld_81e98a0f-b8eb-4a9b-b01b-35d26758c41c</t>
+        </is>
+      </c>
+      <c r="D904" t="inlineStr">
+        <is>
+          <t>2024-07-23T14:43:36.014Z</t>
+        </is>
+      </c>
+      <c r="E904" t="inlineStr">
+        <is>
+          <t>2024-07-22T19:52:03.599Z</t>
+        </is>
+      </c>
+      <c r="F904" t="n">
+        <v>362</v>
+      </c>
+      <c r="G904" t="n">
+        <v>32</v>
+      </c>
+      <c r="H904" t="n">
+        <v>3</v>
+      </c>
+      <c r="I904" t="n">
+        <v>0</v>
+      </c>
+      <c r="J904" t="n">
+        <v>4</v>
+      </c>
+      <c r="K904" t="n">
+        <v>0</v>
+      </c>
+      <c r="L904" t="n">
+        <v>120.67</v>
+      </c>
+      <c r="M904" t="n">
+        <v>382</v>
+      </c>
+      <c r="N904" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O904" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="inlineStr">
+        <is>
+          <t>2025/08/09</t>
+        </is>
+      </c>
+      <c r="B905" t="inlineStr">
+        <is>
+          <t>Project：Hide＆Seek LAB（UNFINISHED ）</t>
+        </is>
+      </c>
+      <c r="C905" t="inlineStr">
+        <is>
+          <t>wrld_bac386e9-a543-48e7-a12d-fe9bd3521493</t>
+        </is>
+      </c>
+      <c r="D905" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E905" t="inlineStr">
+        <is>
+          <t>2024-07-11T09:44:06.067Z</t>
+        </is>
+      </c>
+      <c r="F905" t="n">
+        <v>49</v>
+      </c>
+      <c r="G905" t="n">
+        <v>16</v>
+      </c>
+      <c r="H905" t="n">
+        <v>0</v>
+      </c>
+      <c r="I905" t="n">
+        <v>0</v>
+      </c>
+      <c r="J905" t="n">
+        <v>0</v>
+      </c>
+      <c r="M905" t="n">
+        <v>393</v>
+      </c>
+      <c r="N905" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="inlineStr">
+        <is>
+          <t>2025/08/09</t>
+        </is>
+      </c>
+      <c r="B906" t="inlineStr">
+        <is>
+          <t>Simple Green Room（Quest 3 MR）</t>
+        </is>
+      </c>
+      <c r="C906" t="inlineStr">
+        <is>
+          <t>wrld_14e668e2-f41b-4655-9440-51be3be0ae81</t>
+        </is>
+      </c>
+      <c r="D906" t="inlineStr">
+        <is>
+          <t>2024-07-08T21:05:28.545Z</t>
+        </is>
+      </c>
+      <c r="E906" t="inlineStr">
+        <is>
+          <t>2024-07-11T08:38:23.384Z</t>
+        </is>
+      </c>
+      <c r="F906" t="n">
+        <v>596</v>
+      </c>
+      <c r="G906" t="n">
+        <v>8</v>
+      </c>
+      <c r="H906" t="n">
+        <v>34</v>
+      </c>
+      <c r="I906" t="n">
+        <v>4</v>
+      </c>
+      <c r="J906" t="n">
+        <v>4</v>
+      </c>
+      <c r="K906" t="n">
+        <v>263</v>
+      </c>
+      <c r="L906" t="n">
+        <v>17.53</v>
+      </c>
+      <c r="M906" t="n">
+        <v>393</v>
+      </c>
+      <c r="N906" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O906" t="n">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="inlineStr">
+        <is>
+          <t>2025/08/09</t>
+        </is>
+      </c>
+      <c r="B907" t="inlineStr">
+        <is>
+          <t>Ruined斷垣殘壁 （測試）</t>
+        </is>
+      </c>
+      <c r="C907" t="inlineStr">
+        <is>
+          <t>wrld_7d7a9a66-df6a-4e2c-96fb-19b4dc53c430</t>
+        </is>
+      </c>
+      <c r="D907" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E907" t="inlineStr">
+        <is>
+          <t>2024-06-04T16:33:51.575Z</t>
+        </is>
+      </c>
+      <c r="F907" t="n">
+        <v>2</v>
+      </c>
+      <c r="G907" t="n">
+        <v>32</v>
+      </c>
+      <c r="H907" t="n">
+        <v>0</v>
+      </c>
+      <c r="I907" t="n">
+        <v>0</v>
+      </c>
+      <c r="J907" t="n">
+        <v>0</v>
+      </c>
+      <c r="M907" t="n">
+        <v>430</v>
+      </c>
+      <c r="N907" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="inlineStr">
+        <is>
+          <t>2025/08/09</t>
+        </is>
+      </c>
+      <c r="B908" t="inlineStr">
+        <is>
+          <t>Project˸ Taiwan</t>
+        </is>
+      </c>
+      <c r="C908" t="inlineStr">
+        <is>
+          <t>wrld_2e5e73d8-758f-4e2d-87db-7770762d52f0</t>
+        </is>
+      </c>
+      <c r="D908" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E908" t="inlineStr">
+        <is>
+          <t>2023-12-08T22:31:41.588Z</t>
+        </is>
+      </c>
+      <c r="F908" t="n">
+        <v>11</v>
+      </c>
+      <c r="G908" t="n">
+        <v>32</v>
+      </c>
+      <c r="H908" t="n">
+        <v>0</v>
+      </c>
+      <c r="I908" t="n">
+        <v>0</v>
+      </c>
+      <c r="J908" t="n">
+        <v>0</v>
+      </c>
+      <c r="M908" t="n">
+        <v>609</v>
+      </c>
+      <c r="N908" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="inlineStr">
+        <is>
+          <t>2025/08/10</t>
+        </is>
+      </c>
+      <c r="B909" t="inlineStr">
+        <is>
+          <t>Formosa Test</t>
+        </is>
+      </c>
+      <c r="C909" t="inlineStr">
+        <is>
+          <t>wrld_44e2cf46-b090-4c70-b5ba-9f7e7ec89d4f</t>
+        </is>
+      </c>
+      <c r="D909" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E909" t="inlineStr">
+        <is>
+          <t>2025-08-09T16:53:49.952Z</t>
+        </is>
+      </c>
+      <c r="F909" t="n">
+        <v>70</v>
+      </c>
+      <c r="G909" t="n">
+        <v>32</v>
+      </c>
+      <c r="H909" t="n">
+        <v>0</v>
+      </c>
+      <c r="I909" t="n">
+        <v>0</v>
+      </c>
+      <c r="J909" t="n">
+        <v>0</v>
+      </c>
+      <c r="M909" t="n">
+        <v>0</v>
+      </c>
+      <c r="N909" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="inlineStr">
+        <is>
+          <t>2025/08/10</t>
+        </is>
+      </c>
+      <c r="B910" t="inlineStr">
+        <is>
+          <t>Project T 9 Turns Taiwan Touge CVS2 九彎十八拐</t>
+        </is>
+      </c>
+      <c r="C910" t="inlineStr">
+        <is>
+          <t>wrld_c4d985d3-11de-4a89-9e8b-60b0342a1676</t>
+        </is>
+      </c>
+      <c r="D910" t="inlineStr">
+        <is>
+          <t>2025-05-03T22:35:59.524Z</t>
+        </is>
+      </c>
+      <c r="E910" t="inlineStr">
+        <is>
+          <t>2025-08-02T09:39:48.354Z</t>
+        </is>
+      </c>
+      <c r="F910" t="n">
+        <v>2128</v>
+      </c>
+      <c r="G910" t="n">
+        <v>32</v>
+      </c>
+      <c r="H910" t="n">
+        <v>109</v>
+      </c>
+      <c r="I910" t="n">
+        <v>3</v>
+      </c>
+      <c r="J910" t="n">
+        <v>5</v>
+      </c>
+      <c r="K910" t="n">
+        <v>12</v>
+      </c>
+      <c r="L910" t="n">
+        <v>19.52</v>
+      </c>
+      <c r="M910" t="n">
+        <v>7</v>
+      </c>
+      <c r="N910" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O910" t="n">
+        <v>21.71</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="inlineStr">
+        <is>
+          <t>2025/08/10</t>
+        </is>
+      </c>
+      <c r="B911" t="inlineStr">
+        <is>
+          <t>StarRiver Space Program v0․1․1 LiftOff</t>
+        </is>
+      </c>
+      <c r="C911" t="inlineStr">
+        <is>
+          <t>wrld_f3acb654-f2ab-49aa-9108-d261c53c5d64</t>
+        </is>
+      </c>
+      <c r="D911" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E911" t="inlineStr">
+        <is>
+          <t>2025-07-13T11:38:02.242Z</t>
+        </is>
+      </c>
+      <c r="F911" t="n">
+        <v>49</v>
+      </c>
+      <c r="G911" t="n">
+        <v>32</v>
+      </c>
+      <c r="H911" t="n">
+        <v>1</v>
+      </c>
+      <c r="I911" t="n">
+        <v>0</v>
+      </c>
+      <c r="J911" t="n">
+        <v>3</v>
+      </c>
+      <c r="L911" t="n">
+        <v>49</v>
+      </c>
+      <c r="M911" t="n">
+        <v>27</v>
+      </c>
+      <c r="N911" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="inlineStr">
+        <is>
+          <t>2025/08/10</t>
+        </is>
+      </c>
+      <c r="B912" t="inlineStr">
+        <is>
+          <t>UNFINISHED Project T SunMoonLake 日月潭 南投山道</t>
+        </is>
+      </c>
+      <c r="C912" t="inlineStr">
+        <is>
+          <t>wrld_1b189721-fa5d-4c64-a24b-9a2c5b89b3b5</t>
+        </is>
+      </c>
+      <c r="D912" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E912" t="inlineStr">
+        <is>
+          <t>2025-07-06T07:24:59.566Z</t>
+        </is>
+      </c>
+      <c r="F912" t="n">
+        <v>3</v>
+      </c>
+      <c r="G912" t="n">
+        <v>32</v>
+      </c>
+      <c r="H912" t="n">
+        <v>0</v>
+      </c>
+      <c r="I912" t="n">
+        <v>0</v>
+      </c>
+      <c r="J912" t="n">
+        <v>0</v>
+      </c>
+      <c r="M912" t="n">
+        <v>34</v>
+      </c>
+      <c r="N912" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="inlineStr">
+        <is>
+          <t>2025/08/10</t>
+        </is>
+      </c>
+      <c r="B913" t="inlineStr">
+        <is>
+          <t>UNFINISHED Project T WuLing 武嶺（佐久間峠） 合歡山山道</t>
+        </is>
+      </c>
+      <c r="C913" t="inlineStr">
+        <is>
+          <t>wrld_5fb84156-598a-43c8-8a2b-2c9aa7c95b40</t>
+        </is>
+      </c>
+      <c r="D913" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E913" t="inlineStr">
+        <is>
+          <t>2025-07-03T13:07:32.404Z</t>
+        </is>
+      </c>
+      <c r="F913" t="n">
+        <v>50</v>
+      </c>
+      <c r="G913" t="n">
+        <v>32</v>
+      </c>
+      <c r="H913" t="n">
+        <v>2</v>
+      </c>
+      <c r="I913" t="n">
+        <v>1</v>
+      </c>
+      <c r="J913" t="n">
+        <v>3</v>
+      </c>
+      <c r="L913" t="n">
+        <v>25</v>
+      </c>
+      <c r="M913" t="n">
+        <v>37</v>
+      </c>
+      <c r="N913" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="inlineStr">
+        <is>
+          <t>2025/08/10</t>
+        </is>
+      </c>
+      <c r="B914" t="inlineStr">
+        <is>
+          <t>Project T 9 Turns Taiwan Touge Sacc 九彎十八拐</t>
+        </is>
+      </c>
+      <c r="C914" t="inlineStr">
+        <is>
+          <t>wrld_a6f9cdae-d393-4572-b019-015e4ec6eb35</t>
+        </is>
+      </c>
+      <c r="D914" t="inlineStr">
+        <is>
+          <t>2025-04-09T11:56:42.006Z</t>
+        </is>
+      </c>
+      <c r="E914" t="inlineStr">
+        <is>
+          <t>2025-05-27T15:40:33.056Z</t>
+        </is>
+      </c>
+      <c r="F914" t="n">
+        <v>735</v>
+      </c>
+      <c r="G914" t="n">
+        <v>32</v>
+      </c>
+      <c r="H914" t="n">
+        <v>67</v>
+      </c>
+      <c r="I914" t="n">
+        <v>2</v>
+      </c>
+      <c r="J914" t="n">
+        <v>4</v>
+      </c>
+      <c r="K914" t="n">
+        <v>15</v>
+      </c>
+      <c r="L914" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="M914" t="n">
+        <v>74</v>
+      </c>
+      <c r="N914" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O914" t="n">
+        <v>6.02</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="inlineStr">
+        <is>
+          <t>2025/08/10</t>
+        </is>
+      </c>
+      <c r="B915" t="inlineStr">
+        <is>
+          <t>日月潭外周道 Sun Moon Lake</t>
+        </is>
+      </c>
+      <c r="C915" t="inlineStr">
+        <is>
+          <t>wrld_6e465490-9b15-4d2b-b4fe-1ea06e09e55a</t>
+        </is>
+      </c>
+      <c r="D915" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E915" t="inlineStr">
+        <is>
+          <t>2025-05-17T13:55:05.489Z</t>
+        </is>
+      </c>
+      <c r="F915" t="n">
+        <v>79</v>
+      </c>
+      <c r="G915" t="n">
+        <v>32</v>
+      </c>
+      <c r="H915" t="n">
+        <v>2</v>
+      </c>
+      <c r="I915" t="n">
+        <v>0</v>
+      </c>
+      <c r="J915" t="n">
+        <v>3</v>
+      </c>
+      <c r="L915" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="M915" t="n">
+        <v>84</v>
+      </c>
+      <c r="N915" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="inlineStr">
+        <is>
+          <t>2025/08/10</t>
+        </is>
+      </c>
+      <c r="B916" t="inlineStr">
+        <is>
+          <t>星門廣場StarGATE Exhibition</t>
+        </is>
+      </c>
+      <c r="C916" t="inlineStr">
+        <is>
+          <t>wrld_16498412-b9e0-404c-9da7-114484c89ecd</t>
+        </is>
+      </c>
+      <c r="D916" t="inlineStr">
+        <is>
+          <t>2024-07-22T05:06:07.749Z</t>
+        </is>
+      </c>
+      <c r="E916" t="inlineStr">
+        <is>
+          <t>2025-05-08T16:46:38.069Z</t>
+        </is>
+      </c>
+      <c r="F916" t="n">
+        <v>788</v>
+      </c>
+      <c r="G916" t="n">
+        <v>32</v>
+      </c>
+      <c r="H916" t="n">
+        <v>13</v>
+      </c>
+      <c r="I916" t="n">
+        <v>0</v>
+      </c>
+      <c r="J916" t="n">
+        <v>4</v>
+      </c>
+      <c r="K916" t="n">
+        <v>24</v>
+      </c>
+      <c r="L916" t="n">
+        <v>60.62</v>
+      </c>
+      <c r="M916" t="n">
+        <v>93</v>
+      </c>
+      <c r="N916" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O916" t="n">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="inlineStr">
+        <is>
+          <t>2025/08/10</t>
+        </is>
+      </c>
+      <c r="B917" t="inlineStr">
+        <is>
+          <t>Iseri Nina's Room （Girls Band Cry）</t>
+        </is>
+      </c>
+      <c r="C917" t="inlineStr">
+        <is>
+          <t>wrld_014b19d4-10fc-448d-aaf4-100067cc8eb2</t>
+        </is>
+      </c>
+      <c r="D917" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E917" t="inlineStr">
+        <is>
+          <t>2025-04-10T13:03:37.715Z</t>
+        </is>
+      </c>
+      <c r="F917" t="n">
+        <v>117</v>
+      </c>
+      <c r="G917" t="n">
+        <v>16</v>
+      </c>
+      <c r="H917" t="n">
+        <v>16</v>
+      </c>
+      <c r="I917" t="n">
+        <v>1</v>
+      </c>
+      <c r="J917" t="n">
+        <v>3</v>
+      </c>
+      <c r="L917" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="M917" t="n">
+        <v>121</v>
+      </c>
+      <c r="N917" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="inlineStr">
+        <is>
+          <t>2025/08/10</t>
+        </is>
+      </c>
+      <c r="B918" t="inlineStr">
+        <is>
+          <t>Starriver's Room</t>
+        </is>
+      </c>
+      <c r="C918" t="inlineStr">
+        <is>
+          <t>wrld_c0f03f3e-ca4c-48cb-8aea-14ed13c1ee03</t>
+        </is>
+      </c>
+      <c r="D918" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E918" t="inlineStr">
+        <is>
+          <t>2025-04-08T12:56:39.508Z</t>
+        </is>
+      </c>
+      <c r="F918" t="n">
+        <v>227</v>
+      </c>
+      <c r="G918" t="n">
+        <v>32</v>
+      </c>
+      <c r="H918" t="n">
+        <v>0</v>
+      </c>
+      <c r="I918" t="n">
+        <v>0</v>
+      </c>
+      <c r="J918" t="n">
+        <v>0</v>
+      </c>
+      <c r="M918" t="n">
+        <v>123</v>
+      </c>
+      <c r="N918" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="inlineStr">
+        <is>
+          <t>2025/08/10</t>
+        </is>
+      </c>
+      <c r="B919" t="inlineStr">
+        <is>
+          <t>Metro Formosa Test</t>
+        </is>
+      </c>
+      <c r="C919" t="inlineStr">
+        <is>
+          <t>wrld_39eab7ef-be49-4bb2-bb63-56bc30200b82</t>
+        </is>
+      </c>
+      <c r="D919" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E919" t="inlineStr">
+        <is>
+          <t>2024-11-24T13:59:30.261Z</t>
+        </is>
+      </c>
+      <c r="F919" t="n">
+        <v>20</v>
+      </c>
+      <c r="G919" t="n">
+        <v>32</v>
+      </c>
+      <c r="H919" t="n">
+        <v>0</v>
+      </c>
+      <c r="I919" t="n">
+        <v>0</v>
+      </c>
+      <c r="J919" t="n">
+        <v>0</v>
+      </c>
+      <c r="M919" t="n">
+        <v>258</v>
+      </c>
+      <c r="N919" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="inlineStr">
+        <is>
+          <t>2025/08/10</t>
+        </is>
+      </c>
+      <c r="B920" t="inlineStr">
+        <is>
+          <t>Project ˸ Prototype v0․1․0․ Hangout and chill ǃ （Minecraft Build Project）</t>
+        </is>
+      </c>
+      <c r="C920" t="inlineStr">
+        <is>
+          <t>wrld_fb9540f8-68f1-42e8-9430-558fc2d568c4</t>
+        </is>
+      </c>
+      <c r="D920" t="inlineStr">
+        <is>
+          <t>2023-10-15T12:21:09.717Z</t>
+        </is>
+      </c>
+      <c r="E920" t="inlineStr">
+        <is>
+          <t>2024-09-21T10:55:45.843Z</t>
+        </is>
+      </c>
+      <c r="F920" t="n">
+        <v>4242</v>
+      </c>
+      <c r="G920" t="n">
+        <v>32</v>
+      </c>
+      <c r="H920" t="n">
+        <v>181</v>
+      </c>
+      <c r="I920" t="n">
+        <v>2</v>
+      </c>
+      <c r="J920" t="n">
+        <v>5</v>
+      </c>
+      <c r="K920" t="n">
+        <v>5</v>
+      </c>
+      <c r="L920" t="n">
+        <v>23.44</v>
+      </c>
+      <c r="M920" t="n">
+        <v>322</v>
+      </c>
+      <c r="N920" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O920" t="n">
+        <v>6.39</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="inlineStr">
+        <is>
+          <t>2025/08/10</t>
+        </is>
+      </c>
+      <c r="B921" t="inlineStr">
+        <is>
+          <t>Taipei MRT 大坪林站 by StarRiver（未完成）</t>
+        </is>
+      </c>
+      <c r="C921" t="inlineStr">
+        <is>
+          <t>wrld_b7193f7d-4616-4b3e-8236-e2f4c7da2d8d</t>
+        </is>
+      </c>
+      <c r="D921" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E921" t="inlineStr">
+        <is>
+          <t>2024-09-15T05:18:23.226Z</t>
+        </is>
+      </c>
+      <c r="F921" t="n">
+        <v>116</v>
+      </c>
+      <c r="G921" t="n">
+        <v>32</v>
+      </c>
+      <c r="H921" t="n">
+        <v>2</v>
+      </c>
+      <c r="I921" t="n">
+        <v>0</v>
+      </c>
+      <c r="J921" t="n">
+        <v>4</v>
+      </c>
+      <c r="L921" t="n">
+        <v>58</v>
+      </c>
+      <c r="M921" t="n">
+        <v>328</v>
+      </c>
+      <c r="N921" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="inlineStr">
+        <is>
+          <t>2025/08/10</t>
+        </is>
+      </c>
+      <c r="B922" t="inlineStr">
+        <is>
+          <t>Free Trajectory -A Landscape Recreation Experience</t>
+        </is>
+      </c>
+      <c r="C922" t="inlineStr">
+        <is>
+          <t>wrld_81e98a0f-b8eb-4a9b-b01b-35d26758c41c</t>
+        </is>
+      </c>
+      <c r="D922" t="inlineStr">
+        <is>
+          <t>2024-07-23T14:43:36.014Z</t>
+        </is>
+      </c>
+      <c r="E922" t="inlineStr">
+        <is>
+          <t>2024-07-22T19:52:03.599Z</t>
+        </is>
+      </c>
+      <c r="F922" t="n">
+        <v>362</v>
+      </c>
+      <c r="G922" t="n">
+        <v>32</v>
+      </c>
+      <c r="H922" t="n">
+        <v>3</v>
+      </c>
+      <c r="I922" t="n">
+        <v>0</v>
+      </c>
+      <c r="J922" t="n">
+        <v>4</v>
+      </c>
+      <c r="K922" t="n">
+        <v>0</v>
+      </c>
+      <c r="L922" t="n">
+        <v>120.67</v>
+      </c>
+      <c r="M922" t="n">
+        <v>383</v>
+      </c>
+      <c r="N922" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O922" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="inlineStr">
+        <is>
+          <t>2025/08/10</t>
+        </is>
+      </c>
+      <c r="B923" t="inlineStr">
+        <is>
+          <t>Project：Hide＆Seek LAB（UNFINISHED ）</t>
+        </is>
+      </c>
+      <c r="C923" t="inlineStr">
+        <is>
+          <t>wrld_bac386e9-a543-48e7-a12d-fe9bd3521493</t>
+        </is>
+      </c>
+      <c r="D923" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E923" t="inlineStr">
+        <is>
+          <t>2024-07-11T09:44:06.067Z</t>
+        </is>
+      </c>
+      <c r="F923" t="n">
+        <v>49</v>
+      </c>
+      <c r="G923" t="n">
+        <v>16</v>
+      </c>
+      <c r="H923" t="n">
+        <v>0</v>
+      </c>
+      <c r="I923" t="n">
+        <v>0</v>
+      </c>
+      <c r="J923" t="n">
+        <v>0</v>
+      </c>
+      <c r="M923" t="n">
+        <v>394</v>
+      </c>
+      <c r="N923" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="inlineStr">
+        <is>
+          <t>2025/08/10</t>
+        </is>
+      </c>
+      <c r="B924" t="inlineStr">
+        <is>
+          <t>Simple Green Room（Quest 3 MR）</t>
+        </is>
+      </c>
+      <c r="C924" t="inlineStr">
+        <is>
+          <t>wrld_14e668e2-f41b-4655-9440-51be3be0ae81</t>
+        </is>
+      </c>
+      <c r="D924" t="inlineStr">
+        <is>
+          <t>2024-07-08T21:05:28.545Z</t>
+        </is>
+      </c>
+      <c r="E924" t="inlineStr">
+        <is>
+          <t>2024-07-11T08:38:23.384Z</t>
+        </is>
+      </c>
+      <c r="F924" t="n">
+        <v>596</v>
+      </c>
+      <c r="G924" t="n">
+        <v>8</v>
+      </c>
+      <c r="H924" t="n">
+        <v>34</v>
+      </c>
+      <c r="I924" t="n">
+        <v>4</v>
+      </c>
+      <c r="J924" t="n">
+        <v>4</v>
+      </c>
+      <c r="K924" t="n">
+        <v>263</v>
+      </c>
+      <c r="L924" t="n">
+        <v>17.53</v>
+      </c>
+      <c r="M924" t="n">
+        <v>394</v>
+      </c>
+      <c r="N924" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O924" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="inlineStr">
+        <is>
+          <t>2025/08/10</t>
+        </is>
+      </c>
+      <c r="B925" t="inlineStr">
+        <is>
+          <t>Ruined斷垣殘壁 （測試）</t>
+        </is>
+      </c>
+      <c r="C925" t="inlineStr">
+        <is>
+          <t>wrld_7d7a9a66-df6a-4e2c-96fb-19b4dc53c430</t>
+        </is>
+      </c>
+      <c r="D925" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E925" t="inlineStr">
+        <is>
+          <t>2024-06-04T16:33:51.575Z</t>
+        </is>
+      </c>
+      <c r="F925" t="n">
+        <v>2</v>
+      </c>
+      <c r="G925" t="n">
+        <v>32</v>
+      </c>
+      <c r="H925" t="n">
+        <v>0</v>
+      </c>
+      <c r="I925" t="n">
+        <v>0</v>
+      </c>
+      <c r="J925" t="n">
+        <v>0</v>
+      </c>
+      <c r="M925" t="n">
+        <v>431</v>
+      </c>
+      <c r="N925" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="inlineStr">
+        <is>
+          <t>2025/08/10</t>
+        </is>
+      </c>
+      <c r="B926" t="inlineStr">
+        <is>
+          <t>Project˸ Taiwan</t>
+        </is>
+      </c>
+      <c r="C926" t="inlineStr">
+        <is>
+          <t>wrld_2e5e73d8-758f-4e2d-87db-7770762d52f0</t>
+        </is>
+      </c>
+      <c r="D926" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E926" t="inlineStr">
+        <is>
+          <t>2023-12-08T22:31:41.588Z</t>
+        </is>
+      </c>
+      <c r="F926" t="n">
+        <v>11</v>
+      </c>
+      <c r="G926" t="n">
+        <v>32</v>
+      </c>
+      <c r="H926" t="n">
+        <v>0</v>
+      </c>
+      <c r="I926" t="n">
+        <v>0</v>
+      </c>
+      <c r="J926" t="n">
+        <v>0</v>
+      </c>
+      <c r="K926" t="inlineStr"/>
+      <c r="L926" t="inlineStr"/>
+      <c r="M926" t="n">
+        <v>610</v>
+      </c>
+      <c r="N926" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+      <c r="O926" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
